--- a/十字测试.xlsx
+++ b/十字测试.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Program Files\First Publisher\bin\i386-win32\pas\数学问题\diandeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC5DD5A-6260-4E5C-805D-5CA58E137B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618DDA74-EE80-4B35-A9B6-355354825198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{174EABC5-BD9A-4C13-8056-8F53968DDC26}"/>
+    <workbookView xWindow="5175" yWindow="2910" windowWidth="28800" windowHeight="15345" xr2:uid="{174EABC5-BD9A-4C13-8056-8F53968DDC26}"/>
   </bookViews>
   <sheets>
     <sheet name="公式" sheetId="19" r:id="rId1"/>
@@ -182,9 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a,f,e,l  →  p = a(n)*f</t>
-  </si>
-  <si>
     <t>p,f(n)   →  q = rev(f(n), p)</t>
   </si>
   <si>
@@ -216,6 +213,10 @@
   </si>
   <si>
     <t>p=B(n)*F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b,f,e,l  →  p = b(n)*f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -764,7 +765,7 @@
   <dimension ref="B2:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -780,10 +781,10 @@
         <v>23</v>
       </c>
       <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s">
         <v>45</v>
-      </c>
-      <c r="M2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -792,13 +793,13 @@
       </c>
       <c r="C3" s="5"/>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
         <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -813,7 +814,7 @@
         <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -828,7 +829,7 @@
         <v>27</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -841,7 +842,7 @@
         <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -850,13 +851,13 @@
       </c>
       <c r="C7" s="5"/>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7" t="s">
         <v>31</v>
       </c>
       <c r="M7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -868,7 +869,7 @@
         <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
@@ -878,14 +879,14 @@
         <v>33</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="M10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -976,10 +977,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCE455D-9829-42E3-ACC3-C12B764A1EEE}">
-  <dimension ref="B2:U21"/>
+  <dimension ref="B3:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="B2:M13"/>
+      <selection activeCell="B13" sqref="B13:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -987,444 +988,394 @@
     <col min="1" max="16384" width="2.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="5">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="5">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5">
-        <v>1</v>
-      </c>
-      <c r="L12" s="5">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5">
-        <v>1</v>
-      </c>
-      <c r="L14" s="5">
-        <v>0</v>
-      </c>
-      <c r="M14" s="5">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>1</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5">
-        <v>1</v>
-      </c>
-      <c r="M15" s="5">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5">
-        <v>1</v>
-      </c>
-      <c r="O15" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="5">
         <v>1</v>
       </c>
       <c r="C16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
       </c>
       <c r="E16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="5">
         <v>1</v>
       </c>
       <c r="I16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="5">
         <v>1</v>
       </c>
       <c r="M16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="5">
         <v>1</v>
       </c>
       <c r="O16" s="5">
-        <v>1</v>
-      </c>
-      <c r="P16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="5">
         <v>1</v>
       </c>
       <c r="E17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="5">
         <v>1</v>
       </c>
       <c r="I17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="5">
         <v>1</v>
       </c>
       <c r="M17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="5">
         <v>1</v>
       </c>
       <c r="O17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.2">
@@ -1432,22 +1383,22 @@
         <v>0</v>
       </c>
       <c r="C18" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
       </c>
       <c r="F18" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="5">
         <v>0</v>
@@ -1456,10 +1407,10 @@
         <v>0</v>
       </c>
       <c r="K18" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="5">
         <v>0</v>
@@ -1475,9 +1426,6 @@
       </c>
       <c r="Q18" s="5">
         <v>0</v>
-      </c>
-      <c r="R18" s="5">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.2">
@@ -1485,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="5">
         <v>0</v>
@@ -1497,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="5">
         <v>0</v>
@@ -1509,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="5">
         <v>0</v>
@@ -1518,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="5">
         <v>0</v>
@@ -1531,26 +1479,23 @@
       </c>
       <c r="R19" s="5">
         <v>1</v>
-      </c>
-      <c r="S19" s="5">
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="5">
         <v>0</v>
       </c>
       <c r="F20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="5">
         <v>0</v>
@@ -1562,13 +1507,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="5">
         <v>0</v>
@@ -1589,10 +1534,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="5">
-        <v>1</v>
-      </c>
-      <c r="T20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.2">
@@ -1600,16 +1542,16 @@
         <v>1</v>
       </c>
       <c r="C21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
       </c>
       <c r="F21" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="5">
         <v>0</v>
@@ -1624,10 +1566,10 @@
         <v>1</v>
       </c>
       <c r="K21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="5">
         <v>0</v>
@@ -1645,21 +1587,80 @@
         <v>0</v>
       </c>
       <c r="R21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="5">
-        <v>0</v>
-      </c>
-      <c r="U21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0</v>
+      </c>
+      <c r="T22" s="5">
+        <v>0</v>
+      </c>
+      <c r="U22" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
+  <conditionalFormatting sqref="A1:XFD1 A2:A22 V2:XFD22 B3:U22 A23:XFD1048576">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2559,10 +2560,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCD3932-4C30-42FF-8336-8BCB51EA6EC7}">
-  <dimension ref="B2:U21"/>
+  <dimension ref="B3:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2570,358 +2571,314 @@
     <col min="1" max="16384" width="2.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B2" s="5">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="5">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5">
-        <v>1</v>
-      </c>
-      <c r="L14" s="5">
-        <v>1</v>
-      </c>
-      <c r="M14" s="5">
-        <v>1</v>
-      </c>
-      <c r="N14" s="5">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1</v>
+      </c>
+      <c r="N15" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5">
-        <v>0</v>
-      </c>
-      <c r="M15" s="5">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5">
-        <v>0</v>
-      </c>
-      <c r="O15" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -2954,9 +2911,6 @@
         <v>0</v>
       </c>
       <c r="O16" s="5">
-        <v>0</v>
-      </c>
-      <c r="P16" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2965,7 +2919,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="5">
         <v>0</v>
@@ -2974,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="5">
         <v>0</v>
@@ -3004,15 +2958,12 @@
         <v>0</v>
       </c>
       <c r="P17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -3024,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="5">
         <v>0</v>
@@ -3039,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="5">
         <v>0</v>
@@ -3057,9 +3008,6 @@
         <v>0</v>
       </c>
       <c r="Q18" s="5">
-        <v>0</v>
-      </c>
-      <c r="R18" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3077,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="5">
         <v>0</v>
@@ -3089,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="5">
         <v>0</v>
@@ -3107,24 +3055,21 @@
         <v>0</v>
       </c>
       <c r="P19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="5">
         <v>0</v>
       </c>
       <c r="R19" s="5">
-        <v>0</v>
-      </c>
-      <c r="S19" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="5">
         <v>0</v>
@@ -3133,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="5">
         <v>0</v>
@@ -3145,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="5">
         <v>0</v>
@@ -3163,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="5">
         <v>0</v>
@@ -3172,33 +3117,30 @@
         <v>0</v>
       </c>
       <c r="S20" s="5">
-        <v>0</v>
-      </c>
-      <c r="T20" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
       </c>
       <c r="F21" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="5">
         <v>0</v>
       </c>
       <c r="H21" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="5">
         <v>0</v>
@@ -3210,13 +3152,13 @@
         <v>0</v>
       </c>
       <c r="L21" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="5">
         <v>0</v>
       </c>
       <c r="N21" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="5">
         <v>0</v>
@@ -3236,13 +3178,72 @@
       <c r="T21" s="5">
         <v>0</v>
       </c>
-      <c r="U21" s="5">
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <v>1</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <v>1</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0</v>
+      </c>
+      <c r="T22" s="5">
+        <v>0</v>
+      </c>
+      <c r="U22" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1048576">
+  <conditionalFormatting sqref="A1:XFD1 A2:A22 V2:XFD22 B3:U22 A23:XFD1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/十字测试.xlsx
+++ b/十字测试.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Program Files\First Publisher\bin\i386-win32\pas\数学问题\diandeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618DDA74-EE80-4B35-A9B6-355354825198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998FD7B9-C647-4F35-A39C-93B673938AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="2910" windowWidth="28800" windowHeight="15345" xr2:uid="{174EABC5-BD9A-4C13-8056-8F53968DDC26}"/>
+    <workbookView xWindow="5175" yWindow="2910" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{174EABC5-BD9A-4C13-8056-8F53968DDC26}"/>
   </bookViews>
   <sheets>
     <sheet name="公式" sheetId="19" r:id="rId1"/>
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EC584B-1247-445E-A65C-580072CD19B2}">
   <dimension ref="B2:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -979,7 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCE455D-9829-42E3-ACC3-C12B764A1EEE}">
   <dimension ref="B3:U22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:L13"/>
     </sheetView>
   </sheetViews>
@@ -30560,7 +30560,7 @@
   <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AG2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34714,7 +34714,7 @@
   <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:AG2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34957,3901 +34957,3901 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B4" s="5">
-        <f t="shared" ref="B4:B33" si="1">MOD(B3+A3+B2,2)</f>
+        <f>MOD(B3+A3+B2,2)</f>
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <f t="shared" ref="C4:C33" si="2">MOD(C3+B3+C2,2)</f>
+        <f t="shared" ref="C4:C33" si="1">MOD(C3+B3+C2,2)</f>
         <v>0</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:D33" si="3">MOD(D3+C3+D2,2)</f>
+        <f t="shared" ref="D4:D33" si="2">MOD(D3+C3+D2,2)</f>
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:E33" si="4">MOD(E3+D3+E2,2)</f>
+        <f t="shared" ref="E4:E33" si="3">MOD(E3+D3+E2,2)</f>
         <v>0</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F33" si="5">MOD(F3+E3+F2,2)</f>
+        <f t="shared" ref="F4:F33" si="4">MOD(F3+E3+F2,2)</f>
         <v>0</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G33" si="6">MOD(G3+F3+G2,2)</f>
+        <f t="shared" ref="G4:G33" si="5">MOD(G3+F3+G2,2)</f>
         <v>0</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ref="H4:H33" si="7">MOD(H3+G3+H2,2)</f>
+        <f t="shared" ref="H4:H33" si="6">MOD(H3+G3+H2,2)</f>
         <v>0</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" ref="I4:I33" si="8">MOD(I3+H3+I2,2)</f>
+        <f t="shared" ref="I4:I33" si="7">MOD(I3+H3+I2,2)</f>
         <v>0</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" ref="J4:J33" si="9">MOD(J3+I3+J2,2)</f>
+        <f t="shared" ref="J4:J33" si="8">MOD(J3+I3+J2,2)</f>
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" ref="K4:K33" si="10">MOD(K3+J3+K2,2)</f>
+        <f t="shared" ref="K4:K33" si="9">MOD(K3+J3+K2,2)</f>
         <v>0</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" ref="L4:L33" si="11">MOD(L3+K3+L2,2)</f>
+        <f t="shared" ref="L4:L33" si="10">MOD(L3+K3+L2,2)</f>
         <v>0</v>
       </c>
       <c r="M4" s="5">
-        <f t="shared" ref="M4:M33" si="12">MOD(M3+L3+M2,2)</f>
+        <f t="shared" ref="M4:M33" si="11">MOD(M3+L3+M2,2)</f>
         <v>0</v>
       </c>
       <c r="N4" s="5">
-        <f t="shared" ref="N4:N33" si="13">MOD(N3+M3+N2,2)</f>
+        <f t="shared" ref="N4:N33" si="12">MOD(N3+M3+N2,2)</f>
         <v>0</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" ref="O4:O33" si="14">MOD(O3+N3+O2,2)</f>
+        <f t="shared" ref="O4:O33" si="13">MOD(O3+N3+O2,2)</f>
         <v>0</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" ref="P4:P33" si="15">MOD(P3+O3+P2,2)</f>
+        <f t="shared" ref="P4:P33" si="14">MOD(P3+O3+P2,2)</f>
         <v>0</v>
       </c>
       <c r="Q4" s="5">
-        <f t="shared" ref="Q4:Q33" si="16">MOD(Q3+P3+Q2,2)</f>
+        <f t="shared" ref="Q4:Q33" si="15">MOD(Q3+P3+Q2,2)</f>
         <v>0</v>
       </c>
       <c r="R4" s="5">
-        <f t="shared" ref="R4:R33" si="17">MOD(R3+Q3+R2,2)</f>
+        <f t="shared" ref="R4:R33" si="16">MOD(R3+Q3+R2,2)</f>
         <v>0</v>
       </c>
       <c r="S4" s="5">
-        <f t="shared" ref="S4:S33" si="18">MOD(S3+R3+S2,2)</f>
+        <f t="shared" ref="S4:S33" si="17">MOD(S3+R3+S2,2)</f>
         <v>0</v>
       </c>
       <c r="T4" s="5">
-        <f t="shared" ref="T4:T33" si="19">MOD(T3+S3+T2,2)</f>
+        <f t="shared" ref="T4:T33" si="18">MOD(T3+S3+T2,2)</f>
         <v>0</v>
       </c>
       <c r="U4" s="5">
-        <f t="shared" ref="U4:U33" si="20">MOD(U3+T3+U2,2)</f>
+        <f t="shared" ref="U4:U33" si="19">MOD(U3+T3+U2,2)</f>
         <v>0</v>
       </c>
       <c r="V4" s="5">
-        <f t="shared" ref="V4:V33" si="21">MOD(V3+U3+V2,2)</f>
+        <f t="shared" ref="V4:V33" si="20">MOD(V3+U3+V2,2)</f>
         <v>0</v>
       </c>
       <c r="W4" s="5">
-        <f t="shared" ref="W4:W33" si="22">MOD(W3+V3+W2,2)</f>
+        <f t="shared" ref="W4:W33" si="21">MOD(W3+V3+W2,2)</f>
         <v>0</v>
       </c>
       <c r="X4" s="5">
-        <f t="shared" ref="X4:X33" si="23">MOD(X3+W3+X2,2)</f>
+        <f t="shared" ref="X4:X33" si="22">MOD(X3+W3+X2,2)</f>
         <v>0</v>
       </c>
       <c r="Y4" s="5">
-        <f t="shared" ref="Y4:Y33" si="24">MOD(Y3+X3+Y2,2)</f>
+        <f t="shared" ref="Y4:Y33" si="23">MOD(Y3+X3+Y2,2)</f>
         <v>0</v>
       </c>
       <c r="Z4" s="5">
-        <f t="shared" ref="Z4:Z33" si="25">MOD(Z3+Y3+Z2,2)</f>
+        <f t="shared" ref="Z4:Z33" si="24">MOD(Z3+Y3+Z2,2)</f>
         <v>0</v>
       </c>
       <c r="AA4" s="5">
-        <f t="shared" ref="AA4:AA33" si="26">MOD(AA3+Z3+AA2,2)</f>
+        <f t="shared" ref="AA4:AA33" si="25">MOD(AA3+Z3+AA2,2)</f>
         <v>0</v>
       </c>
       <c r="AB4" s="5">
-        <f t="shared" ref="AB4:AB33" si="27">MOD(AB3+AA3+AB2,2)</f>
+        <f t="shared" ref="AB4:AB33" si="26">MOD(AB3+AA3+AB2,2)</f>
         <v>0</v>
       </c>
       <c r="AC4" s="5">
-        <f t="shared" ref="AC4:AC33" si="28">MOD(AC3+AB3+AC2,2)</f>
+        <f t="shared" ref="AC4:AC33" si="27">MOD(AC3+AB3+AC2,2)</f>
         <v>0</v>
       </c>
       <c r="AD4" s="5">
-        <f t="shared" ref="AD4:AD33" si="29">MOD(AD3+AC3+AD2,2)</f>
+        <f t="shared" ref="AD4:AD33" si="28">MOD(AD3+AC3+AD2,2)</f>
         <v>0</v>
       </c>
       <c r="AE4" s="5">
-        <f t="shared" ref="AE4:AE33" si="30">MOD(AE3+AD3+AE2,2)</f>
+        <f t="shared" ref="AE4:AE33" si="29">MOD(AE3+AD3+AE2,2)</f>
         <v>0</v>
       </c>
       <c r="AF4" s="5">
-        <f t="shared" ref="AF4:AF33" si="31">MOD(AF3+AE3+AF2,2)</f>
+        <f t="shared" ref="AF4:AF33" si="30">MOD(AF3+AE3+AF2,2)</f>
         <v>0</v>
       </c>
       <c r="AG4" s="5">
-        <f t="shared" ref="AG4:AG33" si="32">MOD(AG3+AF3+AG2,2)</f>
+        <f t="shared" ref="AG4:AG33" si="31">MOD(AG3+AF3+AG2,2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B4:B33" si="32">MOD(B4+A4+B3,2)</f>
         <v>1</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D5" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N5" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P5" s="5">
+      <c r="Q5" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="R5" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R5" s="5">
+      <c r="S5" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S5" s="5">
+      <c r="T5" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T5" s="5">
+      <c r="U5" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U5" s="5">
+      <c r="V5" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V5" s="5">
+      <c r="W5" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W5" s="5">
+      <c r="X5" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X5" s="5">
+      <c r="Y5" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Z5" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="AA5" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AB5" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AC5" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AD5" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD5" s="5">
+      <c r="AE5" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE5" s="5">
+      <c r="AF5" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF5" s="5">
+      <c r="AG5" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D6" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N6" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N6" s="5">
+      <c r="O6" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P6" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P6" s="5">
+      <c r="Q6" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="R6" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R6" s="5">
+      <c r="S6" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S6" s="5">
+      <c r="T6" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T6" s="5">
+      <c r="U6" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U6" s="5">
+      <c r="V6" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V6" s="5">
+      <c r="W6" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W6" s="5">
+      <c r="X6" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X6" s="5">
+      <c r="Y6" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Z6" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="AA6" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AB6" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AC6" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="5">
+      <c r="AD6" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="5">
+      <c r="AE6" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="5">
+      <c r="AF6" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="5">
+      <c r="AG6" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K7" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L7" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N7" s="5">
+      <c r="O7" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P7" s="5">
+      <c r="Q7" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="R7" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R7" s="5">
+      <c r="S7" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S7" s="5">
+      <c r="T7" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T7" s="5">
+      <c r="U7" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U7" s="5">
+      <c r="V7" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V7" s="5">
+      <c r="W7" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W7" s="5">
+      <c r="X7" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X7" s="5">
+      <c r="Y7" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Z7" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="AA7" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AB7" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AC7" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="5">
+      <c r="AD7" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="5">
+      <c r="AE7" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="5">
+      <c r="AF7" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="5">
+      <c r="AG7" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG7" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D8" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K8" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M8" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O8" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P8" s="5">
+      <c r="Q8" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="R8" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R8" s="5">
+      <c r="S8" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S8" s="5">
+      <c r="T8" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T8" s="5">
+      <c r="U8" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U8" s="5">
+      <c r="V8" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V8" s="5">
+      <c r="W8" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W8" s="5">
+      <c r="X8" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X8" s="5">
+      <c r="Y8" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="Z8" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="AA8" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AB8" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AC8" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="5">
+      <c r="AD8" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="5">
+      <c r="AE8" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="5">
+      <c r="AF8" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="5">
+      <c r="AG8" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG8" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D9" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L9" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M9" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N9" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N9" s="5">
+      <c r="O9" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P9" s="5">
+      <c r="Q9" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="R9" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R9" s="5">
+      <c r="S9" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S9" s="5">
+      <c r="T9" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T9" s="5">
+      <c r="U9" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U9" s="5">
+      <c r="V9" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V9" s="5">
+      <c r="W9" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W9" s="5">
+      <c r="X9" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X9" s="5">
+      <c r="Y9" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Z9" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="5">
+      <c r="AA9" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="AB9" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AC9" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="5">
+      <c r="AD9" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="5">
+      <c r="AE9" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="5">
+      <c r="AF9" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="5">
+      <c r="AG9" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG9" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D10" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N10" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N10" s="5">
+      <c r="O10" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P10" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P10" s="5">
+      <c r="Q10" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="R10" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R10" s="5">
+      <c r="S10" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S10" s="5">
+      <c r="T10" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T10" s="5">
+      <c r="U10" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U10" s="5">
+      <c r="V10" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V10" s="5">
+      <c r="W10" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W10" s="5">
+      <c r="X10" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X10" s="5">
+      <c r="Y10" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Z10" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="5">
+      <c r="AA10" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA10" s="5">
+      <c r="AB10" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB10" s="5">
+      <c r="AC10" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="5">
+      <c r="AD10" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="5">
+      <c r="AE10" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="5">
+      <c r="AF10" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="5">
+      <c r="AG10" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG10" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D11" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F11" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J11" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K11" s="5">
+      <c r="L11" s="5">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N11" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N11" s="5">
+      <c r="O11" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P11" s="5">
+      <c r="Q11" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="R11" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R11" s="5">
+      <c r="S11" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S11" s="5">
+      <c r="T11" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T11" s="5">
+      <c r="U11" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U11" s="5">
+      <c r="V11" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V11" s="5">
+      <c r="W11" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W11" s="5">
+      <c r="X11" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X11" s="5">
+      <c r="Y11" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Z11" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="5">
+      <c r="AA11" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="5">
+      <c r="AB11" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="5">
+      <c r="AC11" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="5">
+      <c r="AD11" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="5">
+      <c r="AE11" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="5">
+      <c r="AF11" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="5">
+      <c r="AG11" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG11" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D12" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J12" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J12" s="5">
+      <c r="K12" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N12" s="5">
+      <c r="O12" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O12" s="5">
+      <c r="P12" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P12" s="5">
+      <c r="Q12" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="R12" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R12" s="5">
+      <c r="S12" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S12" s="5">
+      <c r="T12" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T12" s="5">
+      <c r="U12" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U12" s="5">
+      <c r="V12" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V12" s="5">
+      <c r="W12" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W12" s="5">
+      <c r="X12" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X12" s="5">
+      <c r="Y12" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Z12" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="5">
+      <c r="AA12" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="AB12" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AC12" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="5">
+      <c r="AD12" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="5">
+      <c r="AE12" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE12" s="5">
+      <c r="AF12" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="5">
+      <c r="AG12" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG12" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="5">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P13" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P13" s="5">
+      <c r="Q13" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="R13" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R13" s="5">
+      <c r="S13" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S13" s="5">
+      <c r="T13" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T13" s="5">
+      <c r="U13" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U13" s="5">
+      <c r="V13" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V13" s="5">
+      <c r="W13" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W13" s="5">
+      <c r="X13" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X13" s="5">
+      <c r="Y13" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="Z13" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="5">
+      <c r="AA13" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA13" s="5">
+      <c r="AB13" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="5">
+      <c r="AC13" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="5">
+      <c r="AD13" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="5">
+      <c r="AE13" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="5">
+      <c r="AF13" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="5">
+      <c r="AG13" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG13" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D14" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J14" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="5">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P14" s="5">
+      <c r="Q14" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="R14" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R14" s="5">
+      <c r="S14" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S14" s="5">
+      <c r="T14" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T14" s="5">
+      <c r="U14" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U14" s="5">
+      <c r="V14" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V14" s="5">
+      <c r="W14" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W14" s="5">
+      <c r="X14" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X14" s="5">
+      <c r="Y14" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="Z14" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="5">
+      <c r="AA14" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="5">
+      <c r="AB14" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="5">
+      <c r="AC14" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC14" s="5">
+      <c r="AD14" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="5">
+      <c r="AE14" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE14" s="5">
+      <c r="AF14" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="5">
+      <c r="AG14" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D15" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H15" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I15" s="5">
+      <c r="J15" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J15" s="5">
+      <c r="K15" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K15" s="5">
+      <c r="L15" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L15" s="5">
+      <c r="M15" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M15" s="5">
+      <c r="N15" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="5">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="O15" s="5">
+      <c r="P15" s="5">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="P15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="R15" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R15" s="5">
+      <c r="S15" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S15" s="5">
+      <c r="T15" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T15" s="5">
+      <c r="U15" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U15" s="5">
+      <c r="V15" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V15" s="5">
+      <c r="W15" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W15" s="5">
+      <c r="X15" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X15" s="5">
+      <c r="Y15" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="5">
+      <c r="Z15" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="5">
+      <c r="AA15" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="5">
+      <c r="AB15" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="AC15" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="5">
+      <c r="AD15" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="5">
+      <c r="AE15" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="5">
+      <c r="AF15" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="5">
+      <c r="AG15" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D16" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G16" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G16" s="5">
+      <c r="H16" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N16" s="5">
+      <c r="O16" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O16" s="5">
+      <c r="P16" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="5">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="Q16" s="5">
+        <v>0</v>
+      </c>
+      <c r="R16" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R16" s="5">
+      <c r="S16" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S16" s="5">
+      <c r="T16" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T16" s="5">
+      <c r="U16" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U16" s="5">
+      <c r="V16" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V16" s="5">
+      <c r="W16" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W16" s="5">
+      <c r="X16" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X16" s="5">
+      <c r="Y16" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="5">
+      <c r="Z16" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="5">
+      <c r="AA16" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="5">
+      <c r="AB16" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB16" s="5">
+      <c r="AC16" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC16" s="5">
+      <c r="AD16" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="5">
+      <c r="AE16" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="5">
+      <c r="AF16" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF16" s="5">
+      <c r="AG16" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D17" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E17" s="5">
+      <c r="F17" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G17" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G17" s="5">
+      <c r="H17" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H17" s="5">
+      <c r="I17" s="5">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="I17" s="5">
+      <c r="J17" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="J17" s="5">
+      <c r="K17" s="5">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K17" s="5">
+      <c r="L17" s="5">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="L17" s="5">
+      <c r="M17" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="M17" s="5">
+      <c r="N17" s="5">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="N17" s="5">
+      <c r="O17" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="O17" s="5">
+      <c r="P17" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="P17" s="5">
+      <c r="Q17" s="5">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="R17" s="5">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="R17" s="5">
+        <v>0</v>
+      </c>
+      <c r="S17" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S17" s="5">
+      <c r="T17" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T17" s="5">
+      <c r="U17" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U17" s="5">
+      <c r="V17" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V17" s="5">
+      <c r="W17" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W17" s="5">
+      <c r="X17" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X17" s="5">
+      <c r="Y17" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="5">
+      <c r="Z17" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="5">
+      <c r="AA17" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA17" s="5">
+      <c r="AB17" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB17" s="5">
+      <c r="AC17" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC17" s="5">
+      <c r="AD17" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD17" s="5">
+      <c r="AE17" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="5">
+      <c r="AF17" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF17" s="5">
+      <c r="AG17" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG17" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D18" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G18" s="5">
+      <c r="H18" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="5">
+        <v>1</v>
+      </c>
+      <c r="M18" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N18" s="5">
+      <c r="O18" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O18" s="5">
+      <c r="P18" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="5">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="Q18" s="5">
+        <v>0</v>
+      </c>
+      <c r="R18" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="5">
+        <v>1</v>
+      </c>
+      <c r="S18" s="5">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="S18" s="5">
+        <v>0</v>
+      </c>
+      <c r="T18" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T18" s="5">
+      <c r="U18" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U18" s="5">
+      <c r="V18" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V18" s="5">
+      <c r="W18" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W18" s="5">
+      <c r="X18" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X18" s="5">
+      <c r="Y18" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="5">
+      <c r="Z18" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="5">
+      <c r="AA18" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA18" s="5">
+      <c r="AB18" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB18" s="5">
+      <c r="AC18" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC18" s="5">
+      <c r="AD18" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD18" s="5">
+      <c r="AE18" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="5">
+      <c r="AF18" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF18" s="5">
+      <c r="AG18" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG18" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E19" s="5">
+      <c r="F19" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G19" s="5">
+      <c r="H19" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I19" s="5">
+      <c r="J19" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J19" s="5">
+      <c r="K19" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K19" s="5">
+      <c r="L19" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L19" s="5">
+      <c r="M19" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M19" s="5">
+      <c r="N19" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="5">
+        <v>1</v>
+      </c>
+      <c r="O19" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="O19" s="5">
+      <c r="P19" s="5">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="P19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="R19" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="5">
+        <v>1</v>
+      </c>
+      <c r="S19" s="5">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="S19" s="5">
+      <c r="T19" s="5">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T19" s="5">
+        <v>0</v>
+      </c>
+      <c r="U19" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U19" s="5">
+      <c r="V19" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V19" s="5">
+      <c r="W19" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W19" s="5">
+      <c r="X19" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X19" s="5">
+      <c r="Y19" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="5">
+      <c r="Z19" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="5">
+      <c r="AA19" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="5">
+      <c r="AB19" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB19" s="5">
+      <c r="AC19" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="5">
+      <c r="AD19" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="5">
+      <c r="AE19" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="5">
+      <c r="AF19" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF19" s="5">
+      <c r="AG19" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG19" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D20" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H20" s="5">
+      <c r="I20" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I20" s="5">
+      <c r="J20" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="5">
+        <v>1</v>
+      </c>
+      <c r="M20" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="5">
+        <v>1</v>
+      </c>
+      <c r="O20" s="5">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="5">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P20" s="5">
+      <c r="Q20" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="R20" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R20" s="5">
+      <c r="S20" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S20" s="5">
+      <c r="T20" s="5">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="5">
+        <v>1</v>
+      </c>
+      <c r="U20" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="U20" s="5">
+        <v>0</v>
+      </c>
+      <c r="V20" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V20" s="5">
+      <c r="W20" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W20" s="5">
+      <c r="X20" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X20" s="5">
+      <c r="Y20" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="5">
+      <c r="Z20" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="5">
+      <c r="AA20" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA20" s="5">
+      <c r="AB20" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB20" s="5">
+      <c r="AC20" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="5">
+      <c r="AD20" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD20" s="5">
+      <c r="AE20" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="5">
+      <c r="AF20" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF20" s="5">
+      <c r="AG20" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG20" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D21" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E21" s="5">
+      <c r="F21" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G21" s="5">
+      <c r="H21" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H21" s="5">
+      <c r="I21" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I21" s="5">
+      <c r="J21" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="5">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K21" s="5">
+      <c r="L21" s="5">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="L21" s="5">
+      <c r="M21" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="M21" s="5">
+      <c r="N21" s="5">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="N21" s="5">
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O21" s="5">
+      <c r="P21" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P21" s="5">
+      <c r="Q21" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="R21" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="5">
+        <v>1</v>
+      </c>
+      <c r="S21" s="5">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="S21" s="5">
+      <c r="T21" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="T21" s="5">
+      <c r="U21" s="5">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U21" s="5">
+      <c r="V21" s="5">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="V21" s="5">
+        <v>0</v>
+      </c>
+      <c r="W21" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W21" s="5">
+      <c r="X21" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X21" s="5">
+      <c r="Y21" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="5">
+      <c r="Z21" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="5">
+      <c r="AA21" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="5">
+      <c r="AB21" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB21" s="5">
+      <c r="AC21" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="5">
+      <c r="AD21" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="5">
+      <c r="AE21" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="5">
+      <c r="AF21" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF21" s="5">
+      <c r="AG21" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG21" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D22" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F22" s="5">
+      <c r="G22" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G22" s="5">
+      <c r="H22" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H22" s="5">
+      <c r="I22" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I22" s="5">
+      <c r="J22" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J22" s="5">
+      <c r="K22" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K22" s="5">
+      <c r="L22" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="5">
+        <v>1</v>
+      </c>
+      <c r="M22" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N22" s="5">
+      <c r="O22" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O22" s="5">
+      <c r="P22" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P22" s="5">
+      <c r="Q22" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="R22" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="5">
+        <v>1</v>
+      </c>
+      <c r="S22" s="5">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="S22" s="5">
+        <v>0</v>
+      </c>
+      <c r="T22" s="5">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="5">
+        <v>1</v>
+      </c>
+      <c r="U22" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="U22" s="5">
+        <v>0</v>
+      </c>
+      <c r="V22" s="5">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="5">
+        <v>1</v>
+      </c>
+      <c r="W22" s="5">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="W22" s="5">
+        <v>0</v>
+      </c>
+      <c r="X22" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X22" s="5">
+      <c r="Y22" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="5">
+      <c r="Z22" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="5">
+      <c r="AA22" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="5">
+      <c r="AB22" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB22" s="5">
+      <c r="AC22" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="5">
+      <c r="AD22" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD22" s="5">
+      <c r="AE22" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="5">
+      <c r="AF22" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF22" s="5">
+      <c r="AG22" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG22" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D23" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E23" s="5">
+      <c r="F23" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F23" s="5">
+      <c r="G23" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G23" s="5">
+      <c r="H23" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H23" s="5">
+      <c r="I23" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I23" s="5">
+      <c r="J23" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K23" s="5">
+      <c r="L23" s="5">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M23" s="5">
+      <c r="N23" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N23" s="5">
+      <c r="O23" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O23" s="5">
+      <c r="P23" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P23" s="5">
+      <c r="Q23" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="R23" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R23" s="5">
+      <c r="S23" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S23" s="5">
+      <c r="T23" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T23" s="5">
+      <c r="U23" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U23" s="5">
+      <c r="V23" s="5">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="5">
+        <v>1</v>
+      </c>
+      <c r="W23" s="5">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="W23" s="5">
+      <c r="X23" s="5">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="X23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="5">
+      <c r="Z23" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="5">
+      <c r="AA23" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="5">
+      <c r="AB23" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB23" s="5">
+      <c r="AC23" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC23" s="5">
+      <c r="AD23" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD23" s="5">
+      <c r="AE23" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE23" s="5">
+      <c r="AF23" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF23" s="5">
+      <c r="AG23" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG23" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D24" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E24" s="5">
+      <c r="F24" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F24" s="5">
+      <c r="G24" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G24" s="5">
+      <c r="H24" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H24" s="5">
+      <c r="I24" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I24" s="5">
+      <c r="J24" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L24" s="5">
+      <c r="M24" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M24" s="5">
+      <c r="N24" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N24" s="5">
+      <c r="O24" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O24" s="5">
+      <c r="P24" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P24" s="5">
+      <c r="Q24" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q24" s="5">
+      <c r="R24" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="5">
+        <v>1</v>
+      </c>
+      <c r="S24" s="5">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="S24" s="5">
+        <v>0</v>
+      </c>
+      <c r="T24" s="5">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="5">
+        <v>1</v>
+      </c>
+      <c r="U24" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="U24" s="5">
+        <v>0</v>
+      </c>
+      <c r="V24" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V24" s="5">
+      <c r="W24" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W24" s="5">
+      <c r="X24" s="5">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X24" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="5">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="Y24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z24" s="5">
+      <c r="AA24" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA24" s="5">
+      <c r="AB24" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB24" s="5">
+      <c r="AC24" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC24" s="5">
+      <c r="AD24" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD24" s="5">
+      <c r="AE24" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE24" s="5">
+      <c r="AF24" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF24" s="5">
+      <c r="AG24" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D25" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E25" s="5">
+      <c r="F25" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F25" s="5">
+      <c r="G25" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G25" s="5">
+      <c r="H25" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H25" s="5">
+      <c r="I25" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I25" s="5">
+      <c r="J25" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J25" s="5">
+      <c r="K25" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K25" s="5">
+      <c r="L25" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L25" s="5">
+      <c r="M25" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M25" s="5">
+      <c r="N25" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N25" s="5">
+      <c r="O25" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O25" s="5">
+      <c r="P25" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P25" s="5">
+      <c r="Q25" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="5">
+      <c r="R25" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="5">
+        <v>1</v>
+      </c>
+      <c r="S25" s="5">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="S25" s="5">
+      <c r="T25" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="T25" s="5">
+      <c r="U25" s="5">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U25" s="5">
+      <c r="V25" s="5">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="V25" s="5">
+      <c r="W25" s="5">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="W25" s="5">
+      <c r="X25" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="X25" s="5">
+      <c r="Y25" s="5">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="Y25" s="5">
+      <c r="Z25" s="5">
         <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="Z25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="5">
+      <c r="AB25" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB25" s="5">
+      <c r="AC25" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC25" s="5">
+      <c r="AD25" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD25" s="5">
+      <c r="AE25" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE25" s="5">
+      <c r="AF25" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF25" s="5">
+      <c r="AG25" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG25" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D26" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E26" s="5">
+      <c r="F26" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F26" s="5">
+      <c r="G26" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G26" s="5">
+      <c r="H26" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H26" s="5">
+      <c r="I26" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I26" s="5">
+      <c r="J26" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="5">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L26" s="5">
+      <c r="M26" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M26" s="5">
+      <c r="N26" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N26" s="5">
+      <c r="O26" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O26" s="5">
+      <c r="P26" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P26" s="5">
+      <c r="Q26" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="5">
+      <c r="R26" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R26" s="5">
+      <c r="S26" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S26" s="5">
+      <c r="T26" s="5">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="5">
+        <v>1</v>
+      </c>
+      <c r="U26" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="U26" s="5">
+        <v>0</v>
+      </c>
+      <c r="V26" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V26" s="5">
+      <c r="W26" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W26" s="5">
+      <c r="X26" s="5">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X26" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="5">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="Y26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="5">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="5">
         <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="AA26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB26" s="5">
+      <c r="AC26" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC26" s="5">
+      <c r="AD26" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD26" s="5">
+      <c r="AE26" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="5">
+      <c r="AF26" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF26" s="5">
+      <c r="AG26" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG26" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D27" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E27" s="5">
+      <c r="F27" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F27" s="5">
+      <c r="G27" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G27" s="5">
+      <c r="H27" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H27" s="5">
+      <c r="I27" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I27" s="5">
+      <c r="J27" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="5">
+        <v>1</v>
+      </c>
+      <c r="K27" s="5">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K27" s="5">
+      <c r="L27" s="5">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M27" s="5">
+      <c r="N27" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N27" s="5">
+      <c r="O27" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O27" s="5">
+      <c r="P27" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P27" s="5">
+      <c r="Q27" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="5">
+      <c r="R27" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="5">
+        <v>1</v>
+      </c>
+      <c r="S27" s="5">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="S27" s="5">
+      <c r="T27" s="5">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T27" s="5">
+        <v>0</v>
+      </c>
+      <c r="U27" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U27" s="5">
+      <c r="V27" s="5">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="5">
+        <v>1</v>
+      </c>
+      <c r="W27" s="5">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="W27" s="5">
+      <c r="X27" s="5">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="X27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y27" s="5">
+      <c r="Z27" s="5">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="AA27" s="5">
+      <c r="AB27" s="5">
         <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="AB27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC27" s="5">
+      <c r="AD27" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD27" s="5">
+      <c r="AE27" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE27" s="5">
+      <c r="AF27" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF27" s="5">
+      <c r="AG27" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG27" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D28" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F28" s="5">
+      <c r="G28" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G28" s="5">
+      <c r="H28" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H28" s="5">
+      <c r="I28" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I28" s="5">
+      <c r="J28" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J28" s="5">
+      <c r="K28" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K28" s="5">
+      <c r="L28" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="5">
+        <v>1</v>
+      </c>
+      <c r="M28" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M28" s="5">
+        <v>0</v>
+      </c>
+      <c r="N28" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N28" s="5">
+      <c r="O28" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O28" s="5">
+      <c r="P28" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P28" s="5">
+      <c r="Q28" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="5">
+      <c r="R28" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="5">
+        <v>1</v>
+      </c>
+      <c r="S28" s="5">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="S28" s="5">
+        <v>0</v>
+      </c>
+      <c r="T28" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T28" s="5">
+      <c r="U28" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U28" s="5">
+      <c r="V28" s="5">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="5">
+        <v>1</v>
+      </c>
+      <c r="W28" s="5">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="W28" s="5">
+        <v>0</v>
+      </c>
+      <c r="X28" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X28" s="5">
+      <c r="Y28" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="5">
+      <c r="Z28" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z28" s="5">
+      <c r="AA28" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="5">
+      <c r="AB28" s="5">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AB28" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="5">
         <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="AC28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD28" s="5">
+      <c r="AE28" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE28" s="5">
+      <c r="AF28" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF28" s="5">
+      <c r="AG28" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG28" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D29" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E29" s="5">
+      <c r="F29" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G29" s="5">
+      <c r="H29" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H29" s="5">
+      <c r="I29" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I29" s="5">
+      <c r="J29" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="5">
+        <v>1</v>
+      </c>
+      <c r="K29" s="5">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K29" s="5">
+      <c r="L29" s="5">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="L29" s="5">
+      <c r="M29" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="M29" s="5">
+      <c r="N29" s="5">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="N29" s="5">
+        <v>0</v>
+      </c>
+      <c r="O29" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O29" s="5">
+      <c r="P29" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P29" s="5">
+      <c r="Q29" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="R29" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R29" s="5">
+      <c r="S29" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S29" s="5">
+      <c r="T29" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T29" s="5">
+      <c r="U29" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U29" s="5">
+      <c r="V29" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V29" s="5">
+      <c r="W29" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W29" s="5">
+      <c r="X29" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X29" s="5">
+      <c r="Y29" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="5">
+      <c r="Z29" s="5">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Z29" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="AA29" s="5">
+      <c r="AB29" s="5">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="AB29" s="5">
+      <c r="AC29" s="5">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="AC29" s="5">
+      <c r="AD29" s="5">
         <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="AD29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE29" s="5">
+      <c r="AF29" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF29" s="5">
+      <c r="AG29" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG29" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D30" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H30" s="5">
+      <c r="I30" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I30" s="5">
+      <c r="J30" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="5">
+        <v>1</v>
+      </c>
+      <c r="K30" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+      <c r="L30" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="5">
+        <v>1</v>
+      </c>
+      <c r="M30" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M30" s="5">
+        <v>0</v>
+      </c>
+      <c r="N30" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="5">
+        <v>1</v>
+      </c>
+      <c r="O30" s="5">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="O30" s="5">
+        <v>0</v>
+      </c>
+      <c r="P30" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P30" s="5">
+      <c r="Q30" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="5">
+      <c r="R30" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="5">
+        <v>1</v>
+      </c>
+      <c r="S30" s="5">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="S30" s="5">
+        <v>0</v>
+      </c>
+      <c r="T30" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T30" s="5">
+      <c r="U30" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U30" s="5">
+      <c r="V30" s="5">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="5">
+        <v>1</v>
+      </c>
+      <c r="W30" s="5">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="W30" s="5">
+        <v>0</v>
+      </c>
+      <c r="X30" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X30" s="5">
+      <c r="Y30" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="5">
+      <c r="Z30" s="5">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="5">
         <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="AA30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="5">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AB30" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="5">
         <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="AC30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="5">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="5">
         <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="AE30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF30" s="5">
+      <c r="AG30" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG30" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D31" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E31" s="5">
+      <c r="F31" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G31" s="5">
+      <c r="H31" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I31" s="5">
+      <c r="J31" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J31" s="5">
+      <c r="K31" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K31" s="5">
+      <c r="L31" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L31" s="5">
+      <c r="M31" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M31" s="5">
+      <c r="N31" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="5">
+        <v>1</v>
+      </c>
+      <c r="O31" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="O31" s="5">
+      <c r="P31" s="5">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="P31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="5">
+      <c r="R31" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="5">
+        <v>1</v>
+      </c>
+      <c r="S31" s="5">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="S31" s="5">
+      <c r="T31" s="5">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T31" s="5">
+        <v>0</v>
+      </c>
+      <c r="U31" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U31" s="5">
+      <c r="V31" s="5">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="5">
+        <v>1</v>
+      </c>
+      <c r="W31" s="5">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="W31" s="5">
+      <c r="X31" s="5">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="X31" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="5">
+      <c r="Z31" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z31" s="5">
+      <c r="AA31" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="5">
+      <c r="AB31" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB31" s="5">
+      <c r="AC31" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC31" s="5">
+      <c r="AD31" s="5">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="5">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="AE31" s="5">
+      <c r="AF31" s="5">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="AF31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG31" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D32" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E32" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F32" s="5">
+      <c r="G32" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G32" s="5">
+      <c r="H32" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="5">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="5">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="5">
+        <v>1</v>
+      </c>
+      <c r="M32" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M32" s="5">
+        <v>0</v>
+      </c>
+      <c r="N32" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N32" s="5">
+      <c r="O32" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O32" s="5">
+      <c r="P32" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="5">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="Q32" s="5">
+        <v>0</v>
+      </c>
+      <c r="R32" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R32" s="5">
+      <c r="S32" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S32" s="5">
+      <c r="T32" s="5">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="5">
+        <v>1</v>
+      </c>
+      <c r="U32" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="U32" s="5">
+        <v>0</v>
+      </c>
+      <c r="V32" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V32" s="5">
+      <c r="W32" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W32" s="5">
+      <c r="X32" s="5">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X32" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="5">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="Y32" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="5">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Z32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="5">
         <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="AA32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="5">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AB32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="5">
         <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="AC32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD32" s="5">
+      <c r="AE32" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE32" s="5">
+      <c r="AF32" s="5">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AF32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="5">
         <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="AG32" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D33" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E33" s="5">
+      <c r="F33" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F33" s="5">
+      <c r="G33" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G33" s="5">
+      <c r="H33" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H33" s="5">
+      <c r="I33" s="5">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="I33" s="5">
+      <c r="J33" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="J33" s="5">
+      <c r="K33" s="5">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K33" s="5">
+      <c r="L33" s="5">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="L33" s="5">
+      <c r="M33" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="M33" s="5">
+      <c r="N33" s="5">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="N33" s="5">
+      <c r="O33" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="O33" s="5">
+      <c r="P33" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="P33" s="5">
+      <c r="Q33" s="5">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q33" s="5">
+      <c r="R33" s="5">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="R33" s="5">
+      <c r="S33" s="5">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="S33" s="5">
+      <c r="T33" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="T33" s="5">
+      <c r="U33" s="5">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U33" s="5">
+      <c r="V33" s="5">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="V33" s="5">
+      <c r="W33" s="5">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="W33" s="5">
+      <c r="X33" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="X33" s="5">
+      <c r="Y33" s="5">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="Y33" s="5">
+      <c r="Z33" s="5">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="Z33" s="5">
+      <c r="AA33" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="AA33" s="5">
+      <c r="AB33" s="5">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="AB33" s="5">
+      <c r="AC33" s="5">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="AC33" s="5">
+      <c r="AD33" s="5">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="AD33" s="5">
+      <c r="AE33" s="5">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="AE33" s="5">
+      <c r="AF33" s="5">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="AF33" s="5">
+      <c r="AG33" s="5">
         <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="AG33" s="5">
-        <f t="shared" si="32"/>
         <v>1</v>
       </c>
     </row>

--- a/十字测试.xlsx
+++ b/十字测试.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Program Files\First Publisher\bin\i386-win32\pas\数学问题\diandeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998FD7B9-C647-4F35-A39C-93B673938AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B310CB07-3AE7-482C-AB80-1E7991A76AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="2910" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{174EABC5-BD9A-4C13-8056-8F53968DDC26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{174EABC5-BD9A-4C13-8056-8F53968DDC26}"/>
   </bookViews>
   <sheets>
     <sheet name="公式" sheetId="19" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="y(灯)" sheetId="13" r:id="rId3"/>
     <sheet name="K" sheetId="1" r:id="rId4"/>
     <sheet name="K^-1" sheetId="9" r:id="rId5"/>
-    <sheet name="e=K^T" sheetId="5" r:id="rId6"/>
-    <sheet name="f|h" sheetId="4" r:id="rId7"/>
+    <sheet name="e|H=K^T=f^-1" sheetId="5" r:id="rId6"/>
+    <sheet name="f|F" sheetId="4" r:id="rId7"/>
     <sheet name="g" sheetId="6" r:id="rId8"/>
     <sheet name="gcd(f,g)" sheetId="7" r:id="rId9"/>
     <sheet name="p" sheetId="11" r:id="rId10"/>
@@ -979,7 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCE455D-9829-42E3-ACC3-C12B764A1EEE}">
   <dimension ref="B3:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13:L13"/>
     </sheetView>
   </sheetViews>
@@ -26407,8 +26407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A54DF61-054D-48B5-B531-B660B2FCAFB3}">
   <dimension ref="B2:AG33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27035,27 +27035,27 @@
       </c>
     </row>
     <row r="7" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -27815,51 +27815,51 @@
       </c>
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B13">
+      <c r="B13" s="2">
         <f t="shared" ref="B13:K22" si="3">MOD(A12+C12,2)</f>
         <v>0</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <f t="shared" ref="L13:U22" si="4">MOD(K12+M12,2)</f>
         <v>0</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="2">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -30560,7 +30560,7 @@
   <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35087,7 +35087,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
-        <f t="shared" ref="B4:B33" si="32">MOD(B4+A4+B3,2)</f>
+        <f t="shared" ref="B5:B33" si="32">MOD(B4+A4+B3,2)</f>
         <v>1</v>
       </c>
       <c r="C5" s="5">

--- a/十字测试.xlsx
+++ b/十字测试.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Program Files\First Publisher\bin\i386-win32\pas\数学问题\diandeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B310CB07-3AE7-482C-AB80-1E7991A76AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BD88B7-9CBB-4A16-BA87-A24E27464175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{174EABC5-BD9A-4C13-8056-8F53968DDC26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="10" xr2:uid="{174EABC5-BD9A-4C13-8056-8F53968DDC26}"/>
   </bookViews>
   <sheets>
     <sheet name="公式" sheetId="19" r:id="rId1"/>
@@ -980,7 +980,7 @@
   <dimension ref="B3:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:L13"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1673,7 +1673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D8083B-A503-4097-BED2-925A34804781}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -13489,3901 +13489,3901 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B4" s="5">
-        <f t="shared" ref="B4:B33" si="1">MOD(A3+B3+C3+B2,2)</f>
+        <f>MOD(A3+B3+C3+B2,2)</f>
         <v>1</v>
       </c>
       <c r="C4" s="5">
-        <f t="shared" ref="C4:C33" si="2">MOD(B3+C3+D3+C2,2)</f>
+        <f t="shared" ref="C4:C33" si="1">MOD(B3+C3+D3+C2,2)</f>
         <v>0</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:D33" si="3">MOD(C3+D3+E3+D2,2)</f>
+        <f t="shared" ref="D4:D33" si="2">MOD(C3+D3+E3+D2,2)</f>
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:E33" si="4">MOD(D3+E3+F3+E2,2)</f>
+        <f t="shared" ref="E4:E33" si="3">MOD(D3+E3+F3+E2,2)</f>
         <v>0</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F33" si="5">MOD(E3+F3+G3+F2,2)</f>
+        <f t="shared" ref="F4:F33" si="4">MOD(E3+F3+G3+F2,2)</f>
         <v>0</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G33" si="6">MOD(F3+G3+H3+G2,2)</f>
+        <f t="shared" ref="G4:G33" si="5">MOD(F3+G3+H3+G2,2)</f>
         <v>0</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ref="H4:H33" si="7">MOD(G3+H3+I3+H2,2)</f>
+        <f t="shared" ref="H4:H33" si="6">MOD(G3+H3+I3+H2,2)</f>
         <v>0</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" ref="I4:I33" si="8">MOD(H3+I3+J3+I2,2)</f>
+        <f t="shared" ref="I4:I33" si="7">MOD(H3+I3+J3+I2,2)</f>
         <v>0</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" ref="J4:J33" si="9">MOD(I3+J3+K3+J2,2)</f>
+        <f t="shared" ref="J4:J33" si="8">MOD(I3+J3+K3+J2,2)</f>
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" ref="K4:K33" si="10">MOD(J3+K3+L3+K2,2)</f>
+        <f t="shared" ref="K4:K33" si="9">MOD(J3+K3+L3+K2,2)</f>
         <v>0</v>
       </c>
       <c r="L4" s="5">
-        <f t="shared" ref="L4:L33" si="11">MOD(K3+L3+M3+L2,2)</f>
+        <f t="shared" ref="L4:L33" si="10">MOD(K3+L3+M3+L2,2)</f>
         <v>0</v>
       </c>
       <c r="M4" s="5">
-        <f t="shared" ref="M4:M33" si="12">MOD(L3+M3+N3+M2,2)</f>
+        <f t="shared" ref="M4:M33" si="11">MOD(L3+M3+N3+M2,2)</f>
         <v>0</v>
       </c>
       <c r="N4" s="5">
-        <f t="shared" ref="N4:N33" si="13">MOD(M3+N3+O3+N2,2)</f>
+        <f t="shared" ref="N4:N33" si="12">MOD(M3+N3+O3+N2,2)</f>
         <v>0</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" ref="O4:O33" si="14">MOD(N3+O3+P3+O2,2)</f>
+        <f t="shared" ref="O4:O33" si="13">MOD(N3+O3+P3+O2,2)</f>
         <v>0</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" ref="P4:P33" si="15">MOD(O3+P3+Q3+P2,2)</f>
+        <f t="shared" ref="P4:P33" si="14">MOD(O3+P3+Q3+P2,2)</f>
         <v>0</v>
       </c>
       <c r="Q4" s="5">
-        <f t="shared" ref="Q4:Q33" si="16">MOD(P3+Q3+R3+Q2,2)</f>
+        <f t="shared" ref="Q4:Q33" si="15">MOD(P3+Q3+R3+Q2,2)</f>
         <v>0</v>
       </c>
       <c r="R4" s="5">
-        <f t="shared" ref="R4:R33" si="17">MOD(Q3+R3+S3+R2,2)</f>
+        <f t="shared" ref="R4:R33" si="16">MOD(Q3+R3+S3+R2,2)</f>
         <v>0</v>
       </c>
       <c r="S4" s="5">
-        <f t="shared" ref="S4:S33" si="18">MOD(R3+S3+T3+S2,2)</f>
+        <f t="shared" ref="S4:S33" si="17">MOD(R3+S3+T3+S2,2)</f>
         <v>0</v>
       </c>
       <c r="T4" s="5">
-        <f t="shared" ref="T4:T33" si="19">MOD(S3+T3+U3+T2,2)</f>
+        <f t="shared" ref="T4:T33" si="18">MOD(S3+T3+U3+T2,2)</f>
         <v>0</v>
       </c>
       <c r="U4" s="5">
-        <f t="shared" ref="U4:U33" si="20">MOD(T3+U3+V3+U2,2)</f>
+        <f t="shared" ref="U4:U33" si="19">MOD(T3+U3+V3+U2,2)</f>
         <v>0</v>
       </c>
       <c r="V4" s="5">
-        <f t="shared" ref="V4:V33" si="21">MOD(U3+V3+W3+V2,2)</f>
+        <f t="shared" ref="V4:V33" si="20">MOD(U3+V3+W3+V2,2)</f>
         <v>0</v>
       </c>
       <c r="W4" s="5">
-        <f t="shared" ref="W4:W33" si="22">MOD(V3+W3+X3+W2,2)</f>
+        <f t="shared" ref="W4:W33" si="21">MOD(V3+W3+X3+W2,2)</f>
         <v>0</v>
       </c>
       <c r="X4" s="5">
-        <f t="shared" ref="X4:X33" si="23">MOD(W3+X3+Y3+X2,2)</f>
+        <f t="shared" ref="X4:X33" si="22">MOD(W3+X3+Y3+X2,2)</f>
         <v>0</v>
       </c>
       <c r="Y4" s="5">
-        <f t="shared" ref="Y4:Y33" si="24">MOD(X3+Y3+Z3+Y2,2)</f>
+        <f t="shared" ref="Y4:Y33" si="23">MOD(X3+Y3+Z3+Y2,2)</f>
         <v>0</v>
       </c>
       <c r="Z4" s="5">
-        <f t="shared" ref="Z4:Z33" si="25">MOD(Y3+Z3+AA3+Z2,2)</f>
+        <f t="shared" ref="Z4:Z33" si="24">MOD(Y3+Z3+AA3+Z2,2)</f>
         <v>0</v>
       </c>
       <c r="AA4" s="5">
-        <f t="shared" ref="AA4:AA33" si="26">MOD(Z3+AA3+AB3+AA2,2)</f>
+        <f t="shared" ref="AA4:AA33" si="25">MOD(Z3+AA3+AB3+AA2,2)</f>
         <v>0</v>
       </c>
       <c r="AB4" s="5">
-        <f t="shared" ref="AB4:AB33" si="27">MOD(AA3+AB3+AC3+AB2,2)</f>
+        <f t="shared" ref="AB4:AB33" si="26">MOD(AA3+AB3+AC3+AB2,2)</f>
         <v>0</v>
       </c>
       <c r="AC4" s="5">
-        <f t="shared" ref="AC4:AC33" si="28">MOD(AB3+AC3+AD3+AC2,2)</f>
+        <f t="shared" ref="AC4:AC33" si="27">MOD(AB3+AC3+AD3+AC2,2)</f>
         <v>0</v>
       </c>
       <c r="AD4" s="5">
-        <f t="shared" ref="AD4:AD33" si="29">MOD(AC3+AD3+AE3+AD2,2)</f>
+        <f t="shared" ref="AD4:AD33" si="28">MOD(AC3+AD3+AE3+AD2,2)</f>
         <v>0</v>
       </c>
       <c r="AE4" s="5">
-        <f t="shared" ref="AE4:AE33" si="30">MOD(AD3+AE3+AF3+AE2,2)</f>
+        <f t="shared" ref="AE4:AE33" si="29">MOD(AD3+AE3+AF3+AE2,2)</f>
         <v>0</v>
       </c>
       <c r="AF4" s="5">
-        <f t="shared" ref="AF4:AF33" si="31">MOD(AE3+AF3+AG3+AF2,2)</f>
+        <f t="shared" ref="AF4:AF33" si="30">MOD(AE3+AF3+AG3+AF2,2)</f>
         <v>0</v>
       </c>
       <c r="AG4" s="5">
-        <f t="shared" ref="AG4:AG33" si="32">MOD(AF3+AG3+AH3+AG2,2)</f>
+        <f t="shared" ref="AG4:AG33" si="31">MOD(AF3+AG3+AH3+AG2,2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B4:B33" si="32">MOD(A4+B4+C4+B3,2)</f>
         <v>0</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D5" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N5" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P5" s="5">
+      <c r="Q5" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="R5" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R5" s="5">
+      <c r="S5" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S5" s="5">
+      <c r="T5" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T5" s="5">
+      <c r="U5" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U5" s="5">
+      <c r="V5" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V5" s="5">
+      <c r="W5" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W5" s="5">
+      <c r="X5" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X5" s="5">
+      <c r="Y5" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Z5" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z5" s="5">
+      <c r="AA5" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AB5" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AC5" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AD5" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD5" s="5">
+      <c r="AE5" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE5" s="5">
+      <c r="AF5" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF5" s="5">
+      <c r="AG5" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D6" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N6" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N6" s="5">
+      <c r="O6" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P6" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P6" s="5">
+      <c r="Q6" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="R6" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R6" s="5">
+      <c r="S6" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S6" s="5">
+      <c r="T6" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T6" s="5">
+      <c r="U6" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U6" s="5">
+      <c r="V6" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V6" s="5">
+      <c r="W6" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W6" s="5">
+      <c r="X6" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X6" s="5">
+      <c r="Y6" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Z6" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="AA6" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AB6" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AC6" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="5">
+      <c r="AD6" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="5">
+      <c r="AE6" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="5">
+      <c r="AF6" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="5">
+      <c r="AG6" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D7" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K7" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L7" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N7" s="5">
+      <c r="O7" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P7" s="5">
+      <c r="Q7" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="R7" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R7" s="5">
+      <c r="S7" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S7" s="5">
+      <c r="T7" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T7" s="5">
+      <c r="U7" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U7" s="5">
+      <c r="V7" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V7" s="5">
+      <c r="W7" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W7" s="5">
+      <c r="X7" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X7" s="5">
+      <c r="Y7" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Z7" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="5">
+      <c r="AA7" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AB7" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AC7" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="5">
+      <c r="AD7" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="5">
+      <c r="AE7" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE7" s="5">
+      <c r="AF7" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF7" s="5">
+      <c r="AG7" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG7" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D8" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K8" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M8" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O8" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P8" s="5">
+      <c r="Q8" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="R8" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R8" s="5">
+      <c r="S8" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S8" s="5">
+      <c r="T8" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T8" s="5">
+      <c r="U8" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U8" s="5">
+      <c r="V8" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V8" s="5">
+      <c r="W8" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W8" s="5">
+      <c r="X8" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X8" s="5">
+      <c r="Y8" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="Z8" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="AA8" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA8" s="5">
+      <c r="AB8" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AC8" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC8" s="5">
+      <c r="AD8" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="5">
+      <c r="AE8" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE8" s="5">
+      <c r="AF8" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="5">
+      <c r="AG8" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG8" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D9" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L9" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M9" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N9" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N9" s="5">
+      <c r="O9" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P9" s="5">
+      <c r="Q9" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="R9" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R9" s="5">
+      <c r="S9" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S9" s="5">
+      <c r="T9" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T9" s="5">
+      <c r="U9" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U9" s="5">
+      <c r="V9" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V9" s="5">
+      <c r="W9" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W9" s="5">
+      <c r="X9" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X9" s="5">
+      <c r="Y9" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Z9" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z9" s="5">
+      <c r="AA9" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA9" s="5">
+      <c r="AB9" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB9" s="5">
+      <c r="AC9" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="5">
+      <c r="AD9" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="5">
+      <c r="AE9" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE9" s="5">
+      <c r="AF9" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="5">
+      <c r="AG9" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG9" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D10" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N10" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N10" s="5">
+      <c r="O10" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P10" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P10" s="5">
+      <c r="Q10" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="R10" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R10" s="5">
+      <c r="S10" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S10" s="5">
+      <c r="T10" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T10" s="5">
+      <c r="U10" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U10" s="5">
+      <c r="V10" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V10" s="5">
+      <c r="W10" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W10" s="5">
+      <c r="X10" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X10" s="5">
+      <c r="Y10" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Z10" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="5">
+      <c r="AA10" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA10" s="5">
+      <c r="AB10" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB10" s="5">
+      <c r="AC10" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="5">
+      <c r="AD10" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="5">
+      <c r="AE10" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="5">
+      <c r="AF10" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF10" s="5">
+      <c r="AG10" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG10" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D11" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K11" s="5">
+      <c r="L11" s="5">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N11" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N11" s="5">
+      <c r="O11" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P11" s="5">
+      <c r="Q11" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="R11" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R11" s="5">
+      <c r="S11" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S11" s="5">
+      <c r="T11" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T11" s="5">
+      <c r="U11" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U11" s="5">
+      <c r="V11" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V11" s="5">
+      <c r="W11" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W11" s="5">
+      <c r="X11" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X11" s="5">
+      <c r="Y11" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Z11" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="5">
+      <c r="AA11" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="5">
+      <c r="AB11" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="5">
+      <c r="AC11" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="5">
+      <c r="AD11" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="5">
+      <c r="AE11" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="5">
+      <c r="AF11" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="5">
+      <c r="AG11" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG11" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D12" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N12" s="5">
+      <c r="O12" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O12" s="5">
+      <c r="P12" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P12" s="5">
+      <c r="Q12" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="R12" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R12" s="5">
+      <c r="S12" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S12" s="5">
+      <c r="T12" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T12" s="5">
+      <c r="U12" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U12" s="5">
+      <c r="V12" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V12" s="5">
+      <c r="W12" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W12" s="5">
+      <c r="X12" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X12" s="5">
+      <c r="Y12" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Z12" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="5">
+      <c r="AA12" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="AB12" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AC12" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="5">
+      <c r="AD12" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="5">
+      <c r="AE12" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE12" s="5">
+      <c r="AF12" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="5">
+      <c r="AG12" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG12" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="5">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P13" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P13" s="5">
+      <c r="Q13" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="R13" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R13" s="5">
+      <c r="S13" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S13" s="5">
+      <c r="T13" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T13" s="5">
+      <c r="U13" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U13" s="5">
+      <c r="V13" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V13" s="5">
+      <c r="W13" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W13" s="5">
+      <c r="X13" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X13" s="5">
+      <c r="Y13" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="Z13" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="5">
+      <c r="AA13" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA13" s="5">
+      <c r="AB13" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="5">
+      <c r="AC13" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="5">
+      <c r="AD13" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="5">
+      <c r="AE13" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="5">
+      <c r="AF13" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="5">
+      <c r="AG13" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG13" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D14" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J14" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J14" s="5">
+      <c r="K14" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L14" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L14" s="5">
+      <c r="M14" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N14" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="5">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P14" s="5">
+      <c r="Q14" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="R14" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R14" s="5">
+      <c r="S14" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S14" s="5">
+      <c r="T14" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T14" s="5">
+      <c r="U14" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U14" s="5">
+      <c r="V14" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V14" s="5">
+      <c r="W14" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W14" s="5">
+      <c r="X14" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X14" s="5">
+      <c r="Y14" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="5">
+      <c r="Z14" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="5">
+      <c r="AA14" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="5">
+      <c r="AB14" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="5">
+      <c r="AC14" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC14" s="5">
+      <c r="AD14" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="5">
+      <c r="AE14" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE14" s="5">
+      <c r="AF14" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="5">
+      <c r="AG14" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D15" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E15" s="5">
+      <c r="F15" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H15" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H15" s="5">
+      <c r="I15" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I15" s="5">
+      <c r="J15" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J15" s="5">
+      <c r="K15" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="L15" s="5">
+      <c r="M15" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="5">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="O15" s="5">
+      <c r="P15" s="5">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="P15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="R15" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R15" s="5">
+      <c r="S15" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S15" s="5">
+      <c r="T15" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T15" s="5">
+      <c r="U15" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U15" s="5">
+      <c r="V15" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V15" s="5">
+      <c r="W15" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W15" s="5">
+      <c r="X15" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X15" s="5">
+      <c r="Y15" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="5">
+      <c r="Z15" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="5">
+      <c r="AA15" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="5">
+      <c r="AB15" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="AC15" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="5">
+      <c r="AD15" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="5">
+      <c r="AE15" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="5">
+      <c r="AF15" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="5">
+      <c r="AG15" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D16" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H16" s="5">
+      <c r="I16" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I16" s="5">
+      <c r="J16" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L16" s="5">
+      <c r="M16" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M16" s="5">
+      <c r="N16" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="5">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="5">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="Q16" s="5">
+        <v>0</v>
+      </c>
+      <c r="R16" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R16" s="5">
+      <c r="S16" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S16" s="5">
+      <c r="T16" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T16" s="5">
+      <c r="U16" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U16" s="5">
+      <c r="V16" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V16" s="5">
+      <c r="W16" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W16" s="5">
+      <c r="X16" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X16" s="5">
+      <c r="Y16" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="5">
+      <c r="Z16" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="5">
+      <c r="AA16" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="5">
+      <c r="AB16" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB16" s="5">
+      <c r="AC16" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC16" s="5">
+      <c r="AD16" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="5">
+      <c r="AE16" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="5">
+      <c r="AF16" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF16" s="5">
+      <c r="AG16" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D17" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G17" s="5">
+      <c r="H17" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="J17" s="5">
+      <c r="K17" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="5">
+        <v>1</v>
+      </c>
+      <c r="M17" s="5">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="M17" s="5">
+      <c r="N17" s="5">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="5">
+        <v>1</v>
+      </c>
+      <c r="P17" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="P17" s="5">
+      <c r="Q17" s="5">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="R17" s="5">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="R17" s="5">
+        <v>0</v>
+      </c>
+      <c r="S17" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S17" s="5">
+      <c r="T17" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T17" s="5">
+      <c r="U17" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U17" s="5">
+      <c r="V17" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V17" s="5">
+      <c r="W17" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W17" s="5">
+      <c r="X17" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X17" s="5">
+      <c r="Y17" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="5">
+      <c r="Z17" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="5">
+      <c r="AA17" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA17" s="5">
+      <c r="AB17" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB17" s="5">
+      <c r="AC17" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC17" s="5">
+      <c r="AD17" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD17" s="5">
+      <c r="AE17" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="5">
+      <c r="AF17" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF17" s="5">
+      <c r="AG17" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG17" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D18" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H18" s="5">
+      <c r="I18" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I18" s="5">
+      <c r="J18" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L18" s="5">
+      <c r="M18" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M18" s="5">
+      <c r="N18" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="5">
+        <v>1</v>
+      </c>
+      <c r="O18" s="5">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P18" s="5">
+      <c r="Q18" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="R18" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="5">
+        <v>1</v>
+      </c>
+      <c r="S18" s="5">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="S18" s="5">
+        <v>0</v>
+      </c>
+      <c r="T18" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T18" s="5">
+      <c r="U18" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U18" s="5">
+      <c r="V18" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V18" s="5">
+      <c r="W18" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W18" s="5">
+      <c r="X18" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X18" s="5">
+      <c r="Y18" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="5">
+      <c r="Z18" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="5">
+      <c r="AA18" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA18" s="5">
+      <c r="AB18" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB18" s="5">
+      <c r="AC18" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC18" s="5">
+      <c r="AD18" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD18" s="5">
+      <c r="AE18" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="5">
+      <c r="AF18" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF18" s="5">
+      <c r="AG18" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG18" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E19" s="5">
+      <c r="F19" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G19" s="5">
+      <c r="H19" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H19" s="5">
+      <c r="I19" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I19" s="5">
+      <c r="J19" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J19" s="5">
+      <c r="K19" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="L19" s="5">
+      <c r="M19" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="5">
+        <v>1</v>
+      </c>
+      <c r="O19" s="5">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="5">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="Q19" s="5">
+        <v>0</v>
+      </c>
+      <c r="R19" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="5">
+        <v>1</v>
+      </c>
+      <c r="S19" s="5">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="S19" s="5">
+      <c r="T19" s="5">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T19" s="5">
+        <v>0</v>
+      </c>
+      <c r="U19" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U19" s="5">
+      <c r="V19" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V19" s="5">
+      <c r="W19" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W19" s="5">
+      <c r="X19" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X19" s="5">
+      <c r="Y19" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="5">
+      <c r="Z19" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="5">
+      <c r="AA19" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="5">
+      <c r="AB19" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB19" s="5">
+      <c r="AC19" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="5">
+      <c r="AD19" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="5">
+      <c r="AE19" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="5">
+      <c r="AF19" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF19" s="5">
+      <c r="AG19" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG19" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D20" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H20" s="5">
+      <c r="I20" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I20" s="5">
+      <c r="J20" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J20" s="5">
+      <c r="K20" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K20" s="5">
+      <c r="L20" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L20" s="5">
+      <c r="M20" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M20" s="5">
+      <c r="N20" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N20" s="5">
+      <c r="O20" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O20" s="5">
+      <c r="P20" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="5">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="Q20" s="5">
+        <v>0</v>
+      </c>
+      <c r="R20" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="5">
+        <v>1</v>
+      </c>
+      <c r="S20" s="5">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="S20" s="5">
+        <v>0</v>
+      </c>
+      <c r="T20" s="5">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="5">
+        <v>1</v>
+      </c>
+      <c r="U20" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="U20" s="5">
+        <v>0</v>
+      </c>
+      <c r="V20" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V20" s="5">
+      <c r="W20" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W20" s="5">
+      <c r="X20" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X20" s="5">
+      <c r="Y20" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="5">
+      <c r="Z20" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z20" s="5">
+      <c r="AA20" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA20" s="5">
+      <c r="AB20" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB20" s="5">
+      <c r="AC20" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="5">
+      <c r="AD20" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD20" s="5">
+      <c r="AE20" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE20" s="5">
+      <c r="AF20" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF20" s="5">
+      <c r="AG20" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG20" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D21" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G21" s="5">
+      <c r="H21" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I21" s="5">
+      <c r="J21" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J21" s="5">
+      <c r="K21" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="5">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="L21" s="5">
+      <c r="M21" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="5">
+        <v>1</v>
+      </c>
+      <c r="O21" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="O21" s="5">
+      <c r="P21" s="5">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="P21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="R21" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R21" s="5">
+      <c r="S21" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="5">
+        <v>1</v>
+      </c>
+      <c r="T21" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="T21" s="5">
+      <c r="U21" s="5">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U21" s="5">
+      <c r="V21" s="5">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="V21" s="5">
+        <v>0</v>
+      </c>
+      <c r="W21" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W21" s="5">
+      <c r="X21" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X21" s="5">
+      <c r="Y21" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="5">
+      <c r="Z21" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="5">
+      <c r="AA21" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="5">
+      <c r="AB21" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB21" s="5">
+      <c r="AC21" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="5">
+      <c r="AD21" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="5">
+      <c r="AE21" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="5">
+      <c r="AF21" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF21" s="5">
+      <c r="AG21" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG21" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D22" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L22" s="5">
+      <c r="M22" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M22" s="5">
+      <c r="N22" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N22" s="5">
+      <c r="O22" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O22" s="5">
+      <c r="P22" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P22" s="5">
+      <c r="Q22" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="R22" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R22" s="5">
+      <c r="S22" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S22" s="5">
+      <c r="T22" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T22" s="5">
+      <c r="U22" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U22" s="5">
+      <c r="V22" s="5">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="5">
+        <v>1</v>
+      </c>
+      <c r="W22" s="5">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="W22" s="5">
+        <v>0</v>
+      </c>
+      <c r="X22" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X22" s="5">
+      <c r="Y22" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="5">
+      <c r="Z22" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="5">
+      <c r="AA22" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA22" s="5">
+      <c r="AB22" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB22" s="5">
+      <c r="AC22" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="5">
+      <c r="AD22" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD22" s="5">
+      <c r="AE22" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE22" s="5">
+      <c r="AF22" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF22" s="5">
+      <c r="AG22" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG22" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D23" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E23" s="5">
+      <c r="F23" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F23" s="5">
+      <c r="G23" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H23" s="5">
+      <c r="I23" s="5">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="5">
+        <v>1</v>
+      </c>
+      <c r="M23" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M23" s="5">
+        <v>0</v>
+      </c>
+      <c r="N23" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="5">
+        <v>1</v>
+      </c>
+      <c r="O23" s="5">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="O23" s="5">
+      <c r="P23" s="5">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="P23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="5">
+      <c r="R23" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R23" s="5">
+      <c r="S23" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="S23" s="5">
+        <v>1</v>
+      </c>
+      <c r="T23" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="T23" s="5">
+      <c r="U23" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="U23" s="5">
+        <v>0</v>
+      </c>
+      <c r="V23" s="5">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="5">
+        <v>1</v>
+      </c>
+      <c r="W23" s="5">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="W23" s="5">
+      <c r="X23" s="5">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="X23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="5">
+      <c r="Z23" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="5">
+      <c r="AA23" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="5">
+      <c r="AB23" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB23" s="5">
+      <c r="AC23" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC23" s="5">
+      <c r="AD23" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD23" s="5">
+      <c r="AE23" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE23" s="5">
+      <c r="AF23" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF23" s="5">
+      <c r="AG23" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG23" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D24" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E24" s="5">
+      <c r="F24" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F24" s="5">
+      <c r="G24" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G24" s="5">
+      <c r="H24" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="5">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J24" s="5">
+      <c r="K24" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K24" s="5">
+      <c r="L24" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="5">
+        <v>1</v>
+      </c>
+      <c r="M24" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M24" s="5">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N24" s="5">
+      <c r="O24" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O24" s="5">
+      <c r="P24" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="5">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="Q24" s="5">
+        <v>0</v>
+      </c>
+      <c r="R24" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="5">
+        <v>1</v>
+      </c>
+      <c r="S24" s="5">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="S24" s="5">
+        <v>0</v>
+      </c>
+      <c r="T24" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T24" s="5">
+      <c r="U24" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U24" s="5">
+      <c r="V24" s="5">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="5">
+        <v>1</v>
+      </c>
+      <c r="W24" s="5">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="W24" s="5">
+        <v>0</v>
+      </c>
+      <c r="X24" s="5">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X24" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="5">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="Y24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z24" s="5">
+      <c r="AA24" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA24" s="5">
+      <c r="AB24" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB24" s="5">
+      <c r="AC24" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC24" s="5">
+      <c r="AD24" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD24" s="5">
+      <c r="AE24" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE24" s="5">
+      <c r="AF24" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF24" s="5">
+      <c r="AG24" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D25" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E25" s="5">
+      <c r="F25" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F25" s="5">
+      <c r="G25" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G25" s="5">
+      <c r="H25" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H25" s="5">
+      <c r="I25" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="5">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="J25" s="5">
+      <c r="K25" s="5">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K25" s="5">
+      <c r="L25" s="5">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+      <c r="M25" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="5">
+        <v>1</v>
+      </c>
+      <c r="N25" s="5">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="N25" s="5">
+      <c r="O25" s="5">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="O25" s="5">
+        <v>0</v>
+      </c>
+      <c r="P25" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="5">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="Q25" s="5">
+        <v>0</v>
+      </c>
+      <c r="R25" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="5">
+        <v>1</v>
+      </c>
+      <c r="S25" s="5">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="S25" s="5">
+        <v>0</v>
+      </c>
+      <c r="T25" s="5">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="5">
+        <v>1</v>
+      </c>
+      <c r="U25" s="5">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="U25" s="5">
+      <c r="V25" s="5">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="V25" s="5">
+        <v>0</v>
+      </c>
+      <c r="W25" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="5">
+        <v>1</v>
+      </c>
+      <c r="X25" s="5">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="X25" s="5">
+      <c r="Y25" s="5">
         <f t="shared" si="23"/>
         <v>1</v>
       </c>
-      <c r="Y25" s="5">
+      <c r="Z25" s="5">
         <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="Z25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="5">
+      <c r="AB25" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB25" s="5">
+      <c r="AC25" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC25" s="5">
+      <c r="AD25" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD25" s="5">
+      <c r="AE25" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE25" s="5">
+      <c r="AF25" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF25" s="5">
+      <c r="AG25" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG25" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D26" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E26" s="5">
+      <c r="F26" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F26" s="5">
+      <c r="G26" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G26" s="5">
+      <c r="H26" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H26" s="5">
+      <c r="I26" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I26" s="5">
+      <c r="J26" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="5">
+        <v>1</v>
+      </c>
+      <c r="K26" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="L26" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="5">
+        <v>1</v>
+      </c>
+      <c r="M26" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M26" s="5">
+        <v>0</v>
+      </c>
+      <c r="N26" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N26" s="5">
+      <c r="O26" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O26" s="5">
+      <c r="P26" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P26" s="5">
+      <c r="Q26" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="5">
+      <c r="R26" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R26" s="5">
+      <c r="S26" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S26" s="5">
+      <c r="T26" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T26" s="5">
+      <c r="U26" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U26" s="5">
+      <c r="V26" s="5">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="5">
+        <v>1</v>
+      </c>
+      <c r="W26" s="5">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="W26" s="5">
+        <v>0</v>
+      </c>
+      <c r="X26" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X26" s="5">
+      <c r="Y26" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="5">
+      <c r="Z26" s="5">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="5">
         <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="AA26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB26" s="5">
+      <c r="AC26" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC26" s="5">
+      <c r="AD26" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD26" s="5">
+      <c r="AE26" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE26" s="5">
+      <c r="AF26" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF26" s="5">
+      <c r="AG26" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG26" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D27" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E27" s="5">
+      <c r="F27" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F27" s="5">
+      <c r="G27" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G27" s="5">
+      <c r="H27" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H27" s="5">
+      <c r="I27" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I27" s="5">
+      <c r="J27" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J27" s="5">
+      <c r="K27" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="5">
+        <v>1</v>
+      </c>
+      <c r="L27" s="5">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="L27" s="5">
+      <c r="M27" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M27" s="5">
+        <v>0</v>
+      </c>
+      <c r="N27" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="5">
+        <v>1</v>
+      </c>
+      <c r="O27" s="5">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="O27" s="5">
+        <v>0</v>
+      </c>
+      <c r="P27" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="5">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="Q27" s="5">
+        <v>0</v>
+      </c>
+      <c r="R27" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="5">
+        <v>1</v>
+      </c>
+      <c r="S27" s="5">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="S27" s="5">
+        <v>0</v>
+      </c>
+      <c r="T27" s="5">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="5">
+        <v>1</v>
+      </c>
+      <c r="U27" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="U27" s="5">
+        <v>0</v>
+      </c>
+      <c r="V27" s="5">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="5">
+        <v>1</v>
+      </c>
+      <c r="W27" s="5">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="W27" s="5">
+        <v>0</v>
+      </c>
+      <c r="X27" s="5">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X27" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="5">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="Y27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="5">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="5">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="AA27" s="5">
+      <c r="AB27" s="5">
         <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="AB27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC27" s="5">
+      <c r="AD27" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD27" s="5">
+      <c r="AE27" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE27" s="5">
+      <c r="AF27" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF27" s="5">
+      <c r="AG27" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG27" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B28" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D28" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F28" s="5">
+      <c r="G28" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G28" s="5">
+      <c r="H28" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H28" s="5">
+      <c r="I28" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I28" s="5">
+      <c r="J28" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J28" s="5">
+      <c r="K28" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K28" s="5">
+      <c r="L28" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="5">
+        <v>1</v>
+      </c>
+      <c r="M28" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M28" s="5">
+        <v>0</v>
+      </c>
+      <c r="N28" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="5">
+        <v>1</v>
+      </c>
+      <c r="O28" s="5">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="O28" s="5">
+        <v>0</v>
+      </c>
+      <c r="P28" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="5">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="Q28" s="5">
+        <v>0</v>
+      </c>
+      <c r="R28" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="5">
+        <v>1</v>
+      </c>
+      <c r="S28" s="5">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="S28" s="5">
+        <v>0</v>
+      </c>
+      <c r="T28" s="5">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="5">
+        <v>1</v>
+      </c>
+      <c r="U28" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="U28" s="5">
+        <v>0</v>
+      </c>
+      <c r="V28" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V28" s="5">
+      <c r="W28" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W28" s="5">
+      <c r="X28" s="5">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="X28" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="5">
         <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="Y28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="5">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Z28" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="5">
         <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="AA28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="5">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AB28" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="5">
         <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="AC28" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="5">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AD28" s="5">
+      <c r="AE28" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE28" s="5">
+      <c r="AF28" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF28" s="5">
+      <c r="AG28" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG28" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B29" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D29" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E29" s="5">
+      <c r="F29" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G29" s="5">
+      <c r="H29" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H29" s="5">
+      <c r="I29" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I29" s="5">
+      <c r="J29" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J29" s="5">
+      <c r="K29" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K29" s="5">
+      <c r="L29" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L29" s="5">
+      <c r="M29" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="M29" s="5">
+      <c r="N29" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N29" s="5">
+      <c r="O29" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O29" s="5">
+      <c r="P29" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P29" s="5">
+      <c r="Q29" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="5">
+      <c r="R29" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R29" s="5">
+      <c r="S29" s="5">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="S29" s="5">
+      <c r="T29" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T29" s="5">
+      <c r="U29" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U29" s="5">
+        <v>1</v>
+      </c>
+      <c r="V29" s="5">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="V29" s="5">
+      <c r="W29" s="5">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="W29" s="5">
+      <c r="X29" s="5">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="X29" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="5">
+      <c r="Z29" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z29" s="5">
+      <c r="AA29" s="5">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="5">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="AB29" s="5">
+      <c r="AC29" s="5">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="AC29" s="5">
+      <c r="AD29" s="5">
         <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="AD29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="5">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="AE29" s="5">
+      <c r="AF29" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF29" s="5">
+      <c r="AG29" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG29" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B30" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D30" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E30" s="5">
+      <c r="F30" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H30" s="5">
+      <c r="I30" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I30" s="5">
+      <c r="J30" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J30" s="5">
+      <c r="K30" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="K30" s="5">
+      <c r="L30" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="5">
+        <v>1</v>
+      </c>
+      <c r="M30" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M30" s="5">
+        <v>0</v>
+      </c>
+      <c r="N30" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="5">
+        <v>1</v>
+      </c>
+      <c r="O30" s="5">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="O30" s="5">
+        <v>0</v>
+      </c>
+      <c r="P30" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="5">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="Q30" s="5">
+        <v>0</v>
+      </c>
+      <c r="R30" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="5">
+        <v>1</v>
+      </c>
+      <c r="S30" s="5">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="S30" s="5">
+        <v>0</v>
+      </c>
+      <c r="T30" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T30" s="5">
+      <c r="U30" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U30" s="5">
+      <c r="V30" s="5">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="5">
+        <v>1</v>
+      </c>
+      <c r="W30" s="5">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="W30" s="5">
+        <v>0</v>
+      </c>
+      <c r="X30" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X30" s="5">
+      <c r="Y30" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="5">
+      <c r="Z30" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z30" s="5">
+      <c r="AA30" s="5">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="5">
+      <c r="AB30" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB30" s="5">
+      <c r="AC30" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC30" s="5">
+      <c r="AD30" s="5">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="5">
         <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="AE30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="5">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AF30" s="5">
+      <c r="AG30" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG30" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B31" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D31" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G31" s="5">
+      <c r="H31" s="5">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I31" s="5">
+      <c r="J31" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J31" s="5">
+      <c r="K31" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="5">
+        <v>1</v>
+      </c>
+      <c r="L31" s="5">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="L31" s="5">
+      <c r="M31" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M31" s="5">
+        <v>0</v>
+      </c>
+      <c r="N31" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="5">
+        <v>1</v>
+      </c>
+      <c r="O31" s="5">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="O31" s="5">
+        <v>0</v>
+      </c>
+      <c r="P31" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="5">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="Q31" s="5">
+        <v>0</v>
+      </c>
+      <c r="R31" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="5">
+        <v>1</v>
+      </c>
+      <c r="S31" s="5">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="S31" s="5">
+      <c r="T31" s="5">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="T31" s="5">
+        <v>0</v>
+      </c>
+      <c r="U31" s="5">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="U31" s="5">
+      <c r="V31" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V31" s="5">
+      <c r="W31" s="5">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="W31" s="5">
+      <c r="X31" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X31" s="5">
+      <c r="Y31" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="5">
+      <c r="Z31" s="5">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="Z31" s="5">
+      <c r="AA31" s="5">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="5">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="AB31" s="5">
+      <c r="AC31" s="5">
         <f t="shared" si="27"/>
-        <v>1</v>
-      </c>
-      <c r="AC31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="5">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="5">
         <f t="shared" si="29"/>
         <v>1</v>
       </c>
-      <c r="AE31" s="5">
+      <c r="AF31" s="5">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="AF31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AG31" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B32" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D32" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E32" s="5">
+      <c r="F32" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="5">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="5">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="5">
+        <v>1</v>
+      </c>
+      <c r="M32" s="5">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="M32" s="5">
+        <v>0</v>
+      </c>
+      <c r="N32" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N32" s="5">
+      <c r="O32" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="O32" s="5">
+      <c r="P32" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="P32" s="5">
+      <c r="Q32" s="5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="5">
+      <c r="R32" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="5">
+        <v>1</v>
+      </c>
+      <c r="S32" s="5">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="S32" s="5">
+        <v>0</v>
+      </c>
+      <c r="T32" s="5">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="5">
+        <v>1</v>
+      </c>
+      <c r="U32" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="U32" s="5">
+        <v>0</v>
+      </c>
+      <c r="V32" s="5">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V32" s="5">
+        <v>1</v>
+      </c>
+      <c r="W32" s="5">
         <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="W32" s="5">
+        <v>0</v>
+      </c>
+      <c r="X32" s="5">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="X32" s="5">
+      <c r="Y32" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="5">
+      <c r="Z32" s="5">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="Z32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="5">
         <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="AA32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="5">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AB32" s="5">
+      <c r="AC32" s="5">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AC32" s="5">
+      <c r="AD32" s="5">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="5">
         <f t="shared" si="29"/>
-        <v>1</v>
-      </c>
-      <c r="AE32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="5">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AF32" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="5">
         <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="AG32" s="5">
-        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B33" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D33" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E33" s="5">
+      <c r="F33" s="5">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H33" s="5">
+      <c r="I33" s="5">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="5">
+        <v>1</v>
+      </c>
+      <c r="K33" s="5">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="K33" s="5">
+      <c r="L33" s="5">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="L33" s="5">
+        <v>0</v>
+      </c>
+      <c r="M33" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="5">
+        <v>1</v>
+      </c>
+      <c r="N33" s="5">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="N33" s="5">
+      <c r="O33" s="5">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="O33" s="5">
+        <v>0</v>
+      </c>
+      <c r="P33" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="5">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="Q33" s="5">
+      <c r="R33" s="5">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="R33" s="5">
+        <v>0</v>
+      </c>
+      <c r="S33" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="5">
+        <v>1</v>
+      </c>
+      <c r="T33" s="5">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="T33" s="5">
+      <c r="U33" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="U33" s="5">
+        <v>0</v>
+      </c>
+      <c r="V33" s="5">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V33" s="5">
+        <v>1</v>
+      </c>
+      <c r="W33" s="5">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="W33" s="5">
+      <c r="X33" s="5">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="X33" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="5">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="5">
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="Z33" s="5">
+      <c r="AA33" s="5">
         <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="AA33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="5">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="AB33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="5">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="AC33" s="5">
+      <c r="AD33" s="5">
         <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="AD33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="5">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="AE33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="5">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="AF33" s="5">
+      <c r="AG33" s="5">
         <f t="shared" si="31"/>
-        <v>1</v>
-      </c>
-      <c r="AG33" s="5">
-        <f t="shared" si="32"/>
         <v>1</v>
       </c>
     </row>
@@ -26407,7 +26407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A54DF61-054D-48B5-B531-B660B2FCAFB3}">
   <dimension ref="B2:AG33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/十字测试.xlsx
+++ b/十字测试.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Program Files\First Publisher\bin\i386-win32\pas\数学问题\diandeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BD88B7-9CBB-4A16-BA87-A24E27464175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5C92C8-C489-4D67-967F-E2719BEEDC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="10" xr2:uid="{174EABC5-BD9A-4C13-8056-8F53968DDC26}"/>
+    <workbookView xWindow="6750" yWindow="1260" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{174EABC5-BD9A-4C13-8056-8F53968DDC26}"/>
   </bookViews>
   <sheets>
     <sheet name="公式" sheetId="19" r:id="rId1"/>
-    <sheet name="A" sheetId="10" r:id="rId2"/>
+    <sheet name="A|B" sheetId="10" r:id="rId2"/>
     <sheet name="y(灯)" sheetId="13" r:id="rId3"/>
     <sheet name="K" sheetId="1" r:id="rId4"/>
     <sheet name="K^-1" sheetId="9" r:id="rId5"/>
     <sheet name="e|H=K^T=f^-1" sheetId="5" r:id="rId6"/>
     <sheet name="f|F" sheetId="4" r:id="rId7"/>
-    <sheet name="g" sheetId="6" r:id="rId8"/>
+    <sheet name="g|C" sheetId="6" r:id="rId8"/>
     <sheet name="gcd(f,g)" sheetId="7" r:id="rId9"/>
     <sheet name="p" sheetId="11" r:id="rId10"/>
     <sheet name="gcd(f,p)=g" sheetId="16" r:id="rId11"/>
@@ -979,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCE455D-9829-42E3-ACC3-C12B764A1EEE}">
   <dimension ref="B3:U22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1660,7 +1660,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1 A2:A22 V2:XFD22 B3:U22 A23:XFD1048576">
+  <conditionalFormatting sqref="A2:A22 B3:U22 A1:XFD1 A23:XFD1048576 V2:XFD22">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -1673,7 +1673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D8083B-A503-4097-BED2-925A34804781}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2563,7 +2563,7 @@
   <dimension ref="B3:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:F7"/>
+      <selection activeCell="B2" sqref="B2:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13246,7 +13246,7 @@
   <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13619,7 +13619,7 @@
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
-        <f t="shared" ref="B4:B33" si="32">MOD(A4+B4+C4+B3,2)</f>
+        <f t="shared" ref="B5:B33" si="32">MOD(A4+B4+C4+B3,2)</f>
         <v>0</v>
       </c>
       <c r="C5" s="5">
@@ -17403,7 +17403,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18088,8 +18088,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1 A2:A22 V2:XFD22 B3:U22 A23:XFD1048576">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:AG1 AO1:XFD2 V2:AG2 A2:A22 Y3:Y6 AQ3:AU9 B3:U22 BB3:XFD27 V7:Y7 V8:AD8 V9:AG22 AO10:AU27 A23:AG38 AO28:XFD38 A39:XFD1048576">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26408,7 +26408,7 @@
   <dimension ref="B2:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34714,7 +34714,7 @@
   <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -38871,7 +38871,7 @@
   <dimension ref="A1:BN66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/十字测试.xlsx
+++ b/十字测试.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Program Files\First Publisher\bin\i386-win32\pas\数学问题\diandeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4ABE7B-E744-4A34-A3CD-F12CA6191EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAE5AB1-E050-4CB2-B5D1-7DFC3C94F534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="3690" windowWidth="28800" windowHeight="15345" firstSheet="1" activeTab="3" xr2:uid="{174EABC5-BD9A-4C13-8056-8F53968DDC26}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="4" activeTab="19" xr2:uid="{174EABC5-BD9A-4C13-8056-8F53968DDC26}"/>
   </bookViews>
   <sheets>
     <sheet name="公式" sheetId="19" r:id="rId1"/>
@@ -32,23 +32,13 @@
     <sheet name="P" sheetId="20" r:id="rId17"/>
     <sheet name="gcd(f,p)=g" sheetId="16" r:id="rId18"/>
     <sheet name="Q" sheetId="12" r:id="rId19"/>
-    <sheet name="11，14矩阵" sheetId="2" r:id="rId20"/>
+    <sheet name="X" sheetId="32" r:id="rId20"/>
+    <sheet name="11，14矩阵" sheetId="2" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -353,7 +343,14 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -914,13 +911,13 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="E2" t="s">
@@ -933,7 +930,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -948,7 +945,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
@@ -963,7 +960,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
@@ -978,7 +975,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="E6" t="s">
@@ -991,7 +988,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -1006,7 +1003,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -1018,7 +1015,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="K9" t="s">
@@ -1028,92 +1025,92 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="M10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:C2 C3:C8 B7:B8 B9:C10 C11:C12">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:C14 C15 B16:C17 C18:C19 B20:C24">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1129,14 +1126,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -1234,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <f>MOD(A2+B1+C2,2)</f>
         <v>0</v>
@@ -1364,7 +1361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <f t="shared" ref="B4:AG4" si="1">MOD(A3+B2+C3,2)</f>
         <v>0</v>
@@ -1494,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <f t="shared" ref="B5:AG5" si="2">MOD(A4+B3+C4,2)</f>
         <v>0</v>
@@ -1624,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <f t="shared" ref="B6:AG6" si="3">MOD(A5+B4+C5,2)</f>
         <v>0</v>
@@ -1754,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <f t="shared" ref="B7:AG7" si="4">MOD(A6+B5+C6,2)</f>
         <v>0</v>
@@ -1884,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <f t="shared" ref="B8:AG8" si="5">MOD(A7+B6+C7,2)</f>
         <v>0</v>
@@ -2014,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <f t="shared" ref="B9:AG9" si="6">MOD(A8+B7+C8,2)</f>
         <v>0</v>
@@ -2144,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <f t="shared" ref="B10:AG10" si="7">MOD(A9+B8+C9,2)</f>
         <v>0</v>
@@ -2274,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <f t="shared" ref="B11:AG11" si="8">MOD(A10+B9+C10,2)</f>
         <v>0</v>
@@ -2404,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <f t="shared" ref="B12:AG12" si="9">MOD(A11+B10+C11,2)</f>
         <v>0</v>
@@ -2534,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <f t="shared" ref="B13:AG13" si="10">MOD(A12+B11+C12,2)</f>
         <v>0</v>
@@ -2664,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <f t="shared" ref="B14:AG14" si="11">MOD(A13+B12+C13,2)</f>
         <v>0</v>
@@ -2794,7 +2791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <f t="shared" ref="B15:AG15" si="12">MOD(A14+B13+C14,2)</f>
         <v>0</v>
@@ -2924,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <f t="shared" ref="B16:AG16" si="13">MOD(A15+B14+C15,2)</f>
         <v>0</v>
@@ -3054,7 +3051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <f t="shared" ref="B17:AG17" si="14">MOD(A16+B15+C16,2)</f>
         <v>0</v>
@@ -3184,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <f t="shared" ref="B18:AG18" si="15">MOD(A17+B16+C17,2)</f>
         <v>0</v>
@@ -3314,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <f t="shared" ref="B19:AG19" si="16">MOD(A18+B17+C18,2)</f>
         <v>0</v>
@@ -3444,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <f t="shared" ref="B20:AG20" si="17">MOD(A19+B18+C19,2)</f>
         <v>0</v>
@@ -3574,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <f t="shared" ref="B21:AG21" si="18">MOD(A20+B19+C20,2)</f>
         <v>0</v>
@@ -3704,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <f t="shared" ref="B22:AG22" si="19">MOD(A21+B20+C21,2)</f>
         <v>0</v>
@@ -3834,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <f t="shared" ref="B23:AG23" si="20">MOD(A22+B21+C22,2)</f>
         <v>0</v>
@@ -3964,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <f t="shared" ref="B24:AG24" si="21">MOD(A23+B22+C23,2)</f>
         <v>0</v>
@@ -4094,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <f t="shared" ref="B25:AG25" si="22">MOD(A24+B23+C24,2)</f>
         <v>0</v>
@@ -4224,7 +4221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <f t="shared" ref="B26:AG26" si="23">MOD(A25+B24+C25,2)</f>
         <v>0</v>
@@ -4354,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <f t="shared" ref="B27:AG27" si="24">MOD(A26+B25+C26,2)</f>
         <v>0</v>
@@ -4484,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <f t="shared" ref="B28:AG28" si="25">MOD(A27+B26+C27,2)</f>
         <v>0</v>
@@ -4614,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <f t="shared" ref="B29:AG29" si="26">MOD(A28+B27+C28,2)</f>
         <v>0</v>
@@ -4744,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <f t="shared" ref="B30:AG30" si="27">MOD(A29+B28+C29,2)</f>
         <v>0</v>
@@ -4874,7 +4871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <f t="shared" ref="B31:AG31" si="28">MOD(A30+B29+C30,2)</f>
         <v>0</v>
@@ -5004,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
         <f t="shared" ref="B32:AG32" si="29">MOD(A31+B30+C31,2)</f>
         <v>0</v>
@@ -5134,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <f t="shared" ref="B33:AG33" si="30">MOD(A32+B31+C32,2)</f>
         <v>0</v>
@@ -5267,7 +5264,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:AG33">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5283,14 +5280,14 @@
       <selection activeCell="B2" sqref="B2:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -5388,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <f t="shared" ref="B3:B21" si="0">MOD(A2+B1,2)</f>
         <v>0</v>
@@ -5518,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5648,7 +5645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5778,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5908,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6038,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6168,7 +6165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6298,7 +6295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6428,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6558,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6688,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6818,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -6948,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7078,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7208,7 +7205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7338,7 +7335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7468,7 +7465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7598,7 +7595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -7728,7 +7725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7858,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <f t="shared" ref="B22:B33" si="39">MOD(A21+B20,2)</f>
         <v>1</v>
@@ -7988,7 +7985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <f t="shared" si="39"/>
         <v>0</v>
@@ -8118,7 +8115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <f t="shared" si="39"/>
         <v>1</v>
@@ -8248,7 +8245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <f t="shared" si="39"/>
         <v>0</v>
@@ -8378,7 +8375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <f t="shared" si="39"/>
         <v>1</v>
@@ -8508,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <f t="shared" si="39"/>
         <v>0</v>
@@ -8638,7 +8635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <f t="shared" si="39"/>
         <v>1</v>
@@ -8768,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <f t="shared" si="39"/>
         <v>0</v>
@@ -8898,7 +8895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <f t="shared" si="39"/>
         <v>1</v>
@@ -9028,7 +9025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <f t="shared" si="39"/>
         <v>0</v>
@@ -9158,7 +9155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
         <f t="shared" si="39"/>
         <v>1</v>
@@ -9288,7 +9285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <f t="shared" si="39"/>
         <v>0</v>
@@ -9421,7 +9418,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:AG33">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9437,17 +9434,17 @@
       <selection activeCell="B2" sqref="B2:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="2.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -9545,7 +9542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <f>MOD(B2+A2+B1,2)</f>
         <v>1</v>
@@ -9675,7 +9672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <f>MOD(B3+A3+B2,2)</f>
         <v>0</v>
@@ -9805,7 +9802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <f t="shared" ref="B5:B33" si="32">MOD(B4+A4+B3,2)</f>
         <v>1</v>
@@ -9935,7 +9932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -10065,7 +10062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -10195,7 +10192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -10325,7 +10322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -10455,7 +10452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -10585,7 +10582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -10715,7 +10712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -10845,7 +10842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -10975,7 +10972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -11105,7 +11102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -11235,7 +11232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -11365,7 +11362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -11495,7 +11492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -11625,7 +11622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -11755,7 +11752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -11885,7 +11882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -12015,7 +12012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -12145,7 +12142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -12275,7 +12272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -12405,7 +12402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -12535,7 +12532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -12665,7 +12662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -12795,7 +12792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -12925,7 +12922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -13055,7 +13052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -13185,7 +13182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -13315,7 +13312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -13445,7 +13442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -13578,7 +13575,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13594,19 +13591,19 @@
       <selection activeCell="B2" sqref="B2:P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="9" width="2.5" style="5"/>
     <col min="10" max="10" width="2.5" style="5" customWidth="1"/>
     <col min="11" max="16384" width="2.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -13614,7 +13611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -13625,7 +13622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -13639,7 +13636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>0</v>
       </c>
@@ -13656,7 +13653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -13676,7 +13673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -13699,7 +13696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>0</v>
       </c>
@@ -13725,7 +13722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>0</v>
       </c>
@@ -13754,7 +13751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>0</v>
       </c>
@@ -13786,7 +13783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -13821,7 +13818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>0</v>
       </c>
@@ -13859,7 +13856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>6</v>
       </c>
@@ -13900,7 +13897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>0</v>
       </c>
@@ -13944,7 +13941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>0</v>
       </c>
@@ -13991,7 +13988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>4</v>
       </c>
@@ -14041,7 +14038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>0</v>
       </c>
@@ -14094,7 +14091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>8</v>
       </c>
@@ -14150,7 +14147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>2</v>
       </c>
@@ -14209,7 +14206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>0</v>
       </c>
@@ -14271,7 +14268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -14336,7 +14333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>0</v>
       </c>
@@ -14404,7 +14401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>0</v>
       </c>
@@ -14475,7 +14472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>0</v>
       </c>
@@ -14549,7 +14546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>14</v>
       </c>
@@ -14626,7 +14623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>4</v>
       </c>
@@ -14706,7 +14703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>0</v>
       </c>
@@ -14789,7 +14786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>0</v>
       </c>
@@ -14875,7 +14872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>0</v>
       </c>
@@ -14964,7 +14961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>0</v>
       </c>
@@ -15056,7 +15053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>10</v>
       </c>
@@ -15151,7 +15148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>20</v>
       </c>
@@ -15249,7 +15246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>0</v>
       </c>
@@ -15350,7 +15347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>20</v>
       </c>
@@ -15454,7 +15451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B35" s="5">
         <v>1</v>
       </c>
@@ -15558,7 +15555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B36" s="5">
         <v>1</v>
       </c>
@@ -15665,7 +15662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B37" s="5">
         <v>0</v>
       </c>
@@ -15775,7 +15772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B38" s="5">
         <v>1</v>
       </c>
@@ -15888,7 +15885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B39" s="5">
         <v>1</v>
       </c>
@@ -16004,7 +16001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B40" s="5">
         <v>1</v>
       </c>
@@ -16123,7 +16120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B41" s="5">
         <v>1</v>
       </c>
@@ -16245,7 +16242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B42" s="5">
         <v>1</v>
       </c>
@@ -16370,7 +16367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B43" s="5">
         <v>0</v>
       </c>
@@ -16498,7 +16495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B44" s="5">
         <v>1</v>
       </c>
@@ -16629,7 +16626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B45" s="5">
         <v>1</v>
       </c>
@@ -16763,7 +16760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B46" s="5">
         <v>1</v>
       </c>
@@ -16900,7 +16897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B47" s="5">
         <v>1</v>
       </c>
@@ -17040,7 +17037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.3">
       <c r="B48" s="5">
         <v>1</v>
       </c>
@@ -17183,7 +17180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B49" s="5">
         <v>0</v>
       </c>
@@ -17329,7 +17326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B50" s="5">
         <v>1</v>
       </c>
@@ -17478,7 +17475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B51" s="5">
         <v>1</v>
       </c>
@@ -17630,7 +17627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B52" s="5">
         <v>1</v>
       </c>
@@ -17785,7 +17782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B53" s="5">
         <v>1</v>
       </c>
@@ -17943,7 +17940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B54" s="5">
         <v>1</v>
       </c>
@@ -18104,7 +18101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B55" s="5">
         <v>0</v>
       </c>
@@ -18268,7 +18265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B56" s="5">
         <v>1</v>
       </c>
@@ -18435,7 +18432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B57" s="5">
         <v>1</v>
       </c>
@@ -18605,7 +18602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B58" s="5">
         <v>1</v>
       </c>
@@ -18778,7 +18775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B59" s="5">
         <v>1</v>
       </c>
@@ -18954,7 +18951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B60" s="5">
         <v>1</v>
       </c>
@@ -19133,7 +19130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B61" s="5">
         <v>0</v>
       </c>
@@ -19315,7 +19312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B62" s="5">
         <v>1</v>
       </c>
@@ -19500,7 +19497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B63" s="5">
         <v>1</v>
       </c>
@@ -19688,7 +19685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B64" s="5">
         <v>1</v>
       </c>
@@ -19879,7 +19876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:66" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B65" s="5">
         <v>1</v>
       </c>
@@ -20073,7 +20070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:66" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:66" x14ac:dyDescent="0.3">
       <c r="B66" s="5">
         <v>1</v>
       </c>
@@ -20273,7 +20270,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1 B2:XFD35 A3:A35 A36:XFD1048576">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20289,12 +20286,12 @@
       <selection activeCell="C3" sqref="C3:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="2.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C3" s="5">
         <v>0</v>
       </c>
@@ -20389,7 +20386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C4" s="5">
         <v>1</v>
       </c>
@@ -20484,7 +20481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C5" s="5">
         <f>MOD(C4+B3+A3+C2+C1,2)</f>
         <v>1</v>
@@ -20610,7 +20607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C6" s="5">
         <f>MOD(C5+B4+A4+C3+C2,2)</f>
         <v>1</v>
@@ -20736,7 +20733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C7" s="5">
         <f>MOD(C6+B5+A5+C4+C3,2)</f>
         <v>0</v>
@@ -20862,7 +20859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C8" s="5">
         <f>MOD(C7+B6+A6+C5+C4,2)</f>
         <v>0</v>
@@ -20988,7 +20985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C9" s="5">
         <f t="shared" ref="C9:R24" si="4">MOD(C8+B7+A7+C6+C5,2)</f>
         <v>0</v>
@@ -21114,7 +21111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C10" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -21240,7 +21237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C11" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -21366,7 +21363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C12" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -21492,7 +21489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C13" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -21618,7 +21615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C14" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -21744,7 +21741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C15" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -21870,7 +21867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C16" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -21996,7 +21993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C17" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -22122,7 +22119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C18" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -22248,7 +22245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C19" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -22374,7 +22371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C20" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -22500,7 +22497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C21" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -22626,7 +22623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C22" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -22752,7 +22749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C23" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -22878,7 +22875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C24" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -23004,7 +23001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C25" s="5">
         <f t="shared" ref="C25:R35" si="6">MOD(C24+B23+A23+C22+C21,2)</f>
         <v>0</v>
@@ -23130,7 +23127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C26" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -23256,7 +23253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C27" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -23382,7 +23379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C28" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -23508,7 +23505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C29" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -23634,7 +23631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C30" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -23760,7 +23757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C31" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -23886,7 +23883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C32" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -24012,7 +24009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C33" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -24138,7 +24135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C34" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -24264,7 +24261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C35" s="5">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -24393,7 +24390,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1 A2:A22 AY2:XFD42 AH3:AX35 C4:AG35 A23:B42 C36:AX42 A43:XFD1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24409,12 +24406,12 @@
       <selection activeCell="C3" sqref="C3:AG3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="2.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C3" s="5">
         <v>0</v>
       </c>
@@ -24509,7 +24506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C4" s="5">
         <v>1</v>
       </c>
@@ -24604,7 +24601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C5" s="5">
         <f>MOD(C4+B3+A3+C2+C1,2)</f>
         <v>1</v>
@@ -24730,7 +24727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C6" s="5">
         <f>MOD(C5+B4+A4+C3+C2,2)</f>
         <v>1</v>
@@ -24856,7 +24853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C7" s="5">
         <f>MOD(C6+B5+A5+C4+C3,2)</f>
         <v>0</v>
@@ -24982,7 +24979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C8" s="5">
         <f>MOD(C7+B6+A6+C5+C4,2)</f>
         <v>0</v>
@@ -25108,7 +25105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C9" s="5">
         <f t="shared" ref="C9:C35" si="4">MOD(C8+B7+A7+C6+C5,2)</f>
         <v>0</v>
@@ -25234,7 +25231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C10" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -25360,7 +25357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C11" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -25486,7 +25483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C12" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -25612,7 +25609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C13" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -25738,7 +25735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C14" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -25864,7 +25861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C15" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -25990,7 +25987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C16" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -26116,7 +26113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C17" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -26242,7 +26239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C18" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -26368,7 +26365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C19" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -26494,7 +26491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C20" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -26620,7 +26617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C21" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -26746,7 +26743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C22" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -26872,7 +26869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C23" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -26998,7 +26995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C24" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -27124,7 +27121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C25" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -27250,7 +27247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C26" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -27376,7 +27373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C27" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -27502,7 +27499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C28" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -27628,7 +27625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C29" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -27754,7 +27751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C30" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -27880,7 +27877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C31" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -28006,7 +28003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C32" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -28132,7 +28129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C33" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -28258,7 +28255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C34" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -28384,7 +28381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C35" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -28513,7 +28510,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1 A2:A22 AY2:XFD42 AH3:AX35 C4:AG35 A23:B42 C36:AX42 A43:XFD1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28529,12 +28526,12 @@
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="2.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C3" s="5">
         <f>MOD('C'!B2+F!B2,2)</f>
         <v>0</v>
@@ -28660,7 +28657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C4" s="5">
         <f>MOD('C'!B3+F!B3,2)</f>
         <v>1</v>
@@ -28786,7 +28783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C5" s="5">
         <f>MOD('C'!B4+F!B4,2)</f>
         <v>1</v>
@@ -28912,7 +28909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C6" s="5">
         <f>MOD('C'!B5+F!B5,2)</f>
         <v>1</v>
@@ -29038,7 +29035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C7" s="5">
         <f>MOD('C'!B6+F!B6,2)</f>
         <v>0</v>
@@ -29164,7 +29161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C8" s="5">
         <f>MOD('C'!B7+F!B7,2)</f>
         <v>0</v>
@@ -29290,7 +29287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C9" s="5">
         <f>MOD('C'!B8+F!B8,2)</f>
         <v>0</v>
@@ -29416,7 +29413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C10" s="5">
         <f>MOD('C'!B9+F!B9,2)</f>
         <v>1</v>
@@ -29542,7 +29539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C11" s="5">
         <f>MOD('C'!B10+F!B10,2)</f>
         <v>1</v>
@@ -29668,7 +29665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C12" s="5">
         <f>MOD('C'!B11+F!B11,2)</f>
         <v>1</v>
@@ -29794,7 +29791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C13" s="5">
         <f>MOD('C'!B12+F!B12,2)</f>
         <v>0</v>
@@ -29920,7 +29917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C14" s="5">
         <f>MOD('C'!B13+F!B13,2)</f>
         <v>0</v>
@@ -30046,7 +30043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C15" s="5">
         <f>MOD('C'!B14+F!B14,2)</f>
         <v>0</v>
@@ -30172,7 +30169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C16" s="5">
         <f>MOD('C'!B15+F!B15,2)</f>
         <v>1</v>
@@ -30298,7 +30295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C17" s="5">
         <f>MOD('C'!B16+F!B16,2)</f>
         <v>1</v>
@@ -30424,7 +30421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C18" s="5">
         <f>MOD('C'!B17+F!B17,2)</f>
         <v>1</v>
@@ -30550,7 +30547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C19" s="5">
         <f>MOD('C'!B18+F!B18,2)</f>
         <v>0</v>
@@ -30676,7 +30673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C20" s="5">
         <f>MOD('C'!B19+F!B19,2)</f>
         <v>0</v>
@@ -30802,7 +30799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C21" s="5">
         <f>MOD('C'!B20+F!B20,2)</f>
         <v>0</v>
@@ -30928,7 +30925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C22" s="5">
         <f>MOD('C'!B21+F!B21,2)</f>
         <v>1</v>
@@ -31054,7 +31051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C23" s="5">
         <f>MOD('C'!B22+F!B22,2)</f>
         <v>1</v>
@@ -31180,7 +31177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C24" s="5">
         <f>MOD('C'!B23+F!B23,2)</f>
         <v>1</v>
@@ -31306,7 +31303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C25" s="5">
         <f>MOD('C'!B24+F!B24,2)</f>
         <v>0</v>
@@ -31432,7 +31429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C26" s="5">
         <f>MOD('C'!B25+F!B25,2)</f>
         <v>0</v>
@@ -31558,7 +31555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C27" s="5">
         <f>MOD('C'!B26+F!B26,2)</f>
         <v>0</v>
@@ -31684,7 +31681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C28" s="5">
         <f>MOD('C'!B27+F!B27,2)</f>
         <v>1</v>
@@ -31810,7 +31807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C29" s="5">
         <f>MOD('C'!B28+F!B28,2)</f>
         <v>1</v>
@@ -31936,7 +31933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C30" s="5">
         <f>MOD('C'!B29+F!B29,2)</f>
         <v>1</v>
@@ -32062,7 +32059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C31" s="5">
         <f>MOD('C'!B30+F!B30,2)</f>
         <v>0</v>
@@ -32188,7 +32185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C32" s="5">
         <f>MOD('C'!B31+F!B31,2)</f>
         <v>0</v>
@@ -32314,7 +32311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C33" s="5">
         <f>MOD('C'!B32+F!B32,2)</f>
         <v>0</v>
@@ -32440,7 +32437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:33" x14ac:dyDescent="0.3">
       <c r="C34" s="5">
         <f>MOD('C'!B33+F!B33,2)</f>
         <v>1</v>
@@ -32569,7 +32566,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1 AS2:XFD2 A2:A29 C3:AG34 AH3:XFD35 A30:B36 C36:XFD36 A37:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32585,12 +32582,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="2.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <f>MOD('C'!B2+F!B2,2)</f>
         <v>0</v>
@@ -32675,7 +32672,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <f>MOD('C'!B3+F!B3,2)</f>
         <v>1</v>
@@ -32757,7 +32754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <f>MOD('C'!B4+F!B4,2)</f>
         <v>1</v>
@@ -32839,7 +32836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <f>MOD('C'!B5+F!B5,2)</f>
         <v>1</v>
@@ -32921,7 +32918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <f>MOD('C'!B6+F!B6,2)</f>
         <v>0</v>
@@ -33003,7 +33000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <f>MOD('C'!B7+F!B7,2)</f>
         <v>0</v>
@@ -33085,7 +33082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <f>MOD('C'!B8+F!B8,2)</f>
         <v>0</v>
@@ -33167,7 +33164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <f>MOD('C'!B9+F!B9,2)</f>
         <v>1</v>
@@ -33249,7 +33246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <f>MOD('C'!B10+F!B10,2)</f>
         <v>1</v>
@@ -33331,7 +33328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <f>MOD('C'!B11+F!B11,2)</f>
         <v>1</v>
@@ -33413,7 +33410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <f>MOD('C'!B12+F!B12,2)</f>
         <v>0</v>
@@ -33495,7 +33492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <f>MOD('C'!B13+F!B13,2)</f>
         <v>0</v>
@@ -33577,7 +33574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <f>MOD('C'!B14+F!B14,2)</f>
         <v>0</v>
@@ -33659,7 +33656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <f>MOD('C'!B15+F!B15,2)</f>
         <v>1</v>
@@ -33741,7 +33738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <f>MOD('C'!B16+F!B16,2)</f>
         <v>1</v>
@@ -33823,7 +33820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <f>MOD('C'!B17+F!B17,2)</f>
         <v>1</v>
@@ -33905,7 +33902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <f>MOD('C'!B18+F!B18,2)</f>
         <v>0</v>
@@ -33987,7 +33984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <f>MOD('C'!B19+F!B19,2)</f>
         <v>0</v>
@@ -34069,7 +34066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <f>MOD('C'!B20+F!B20,2)</f>
         <v>0</v>
@@ -34151,7 +34148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <f>MOD('C'!B21+F!B21,2)</f>
         <v>1</v>
@@ -34233,7 +34230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <f>MOD('C'!B22+F!B22,2)</f>
         <v>1</v>
@@ -34318,7 +34315,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34334,17 +34331,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="2.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -34368,7 +34365,7 @@
       <c r="T3"/>
       <c r="U3"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -34394,7 +34391,7 @@
       <c r="T4"/>
       <c r="U4"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1</v>
       </c>
@@ -34422,7 +34419,7 @@
       <c r="T5"/>
       <c r="U5"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1</v>
       </c>
@@ -34452,7 +34449,7 @@
       <c r="T6"/>
       <c r="U6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>0</v>
       </c>
@@ -34484,7 +34481,7 @@
       <c r="T7"/>
       <c r="U7"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1</v>
       </c>
@@ -34518,7 +34515,7 @@
       <c r="T8"/>
       <c r="U8"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1</v>
       </c>
@@ -34554,7 +34551,7 @@
       <c r="T9"/>
       <c r="U9"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1</v>
       </c>
@@ -34592,7 +34589,7 @@
       <c r="T10"/>
       <c r="U10"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1</v>
       </c>
@@ -34632,7 +34629,7 @@
       <c r="T11"/>
       <c r="U11"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1</v>
       </c>
@@ -34674,7 +34671,7 @@
       <c r="T12"/>
       <c r="U12"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>0</v>
       </c>
@@ -34718,7 +34715,7 @@
       <c r="T13"/>
       <c r="U13"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1</v>
       </c>
@@ -34764,7 +34761,7 @@
       <c r="T14"/>
       <c r="U14"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>1</v>
       </c>
@@ -34812,7 +34809,7 @@
       <c r="T15"/>
       <c r="U15"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>1</v>
       </c>
@@ -34862,7 +34859,7 @@
       <c r="T16"/>
       <c r="U16"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>1</v>
       </c>
@@ -34914,7 +34911,7 @@
       <c r="T17"/>
       <c r="U17"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>1</v>
       </c>
@@ -34968,7 +34965,7 @@
       <c r="T18"/>
       <c r="U18"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>0</v>
       </c>
@@ -35024,7 +35021,7 @@
       <c r="T19"/>
       <c r="U19"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1</v>
       </c>
@@ -35082,7 +35079,7 @@
       <c r="T20"/>
       <c r="U20"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>1</v>
       </c>
@@ -35142,7 +35139,7 @@
       </c>
       <c r="U21"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1</v>
       </c>
@@ -35207,7 +35204,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1 A2:A22 V2:XFD22 B3:U22 A23:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35223,17 +35220,17 @@
       <selection activeCell="P16" sqref="B3:P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="2.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -35241,7 +35238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>1</v>
       </c>
@@ -35252,7 +35249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>0</v>
       </c>
@@ -35266,7 +35263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>0</v>
       </c>
@@ -35283,7 +35280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>0</v>
       </c>
@@ -35303,7 +35300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>1</v>
       </c>
@@ -35326,7 +35323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>0</v>
       </c>
@@ -35352,7 +35349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>1</v>
       </c>
@@ -35381,7 +35378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>1</v>
       </c>
@@ -35413,7 +35410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>0</v>
       </c>
@@ -35448,7 +35445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>1</v>
       </c>
@@ -35486,7 +35483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>1</v>
       </c>
@@ -35527,7 +35524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>0</v>
       </c>
@@ -35571,7 +35568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>1</v>
       </c>
@@ -35618,7 +35615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>1</v>
       </c>
@@ -35668,7 +35665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>0</v>
       </c>
@@ -35721,7 +35718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>0</v>
       </c>
@@ -35777,7 +35774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>1</v>
       </c>
@@ -35836,7 +35833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>0</v>
       </c>
@@ -35901,7 +35898,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1 A2:A22 V2:XFD22 B3:U22 A23:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35917,17 +35914,17 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="2.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -36025,7 +36022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <f>MOD(A2+B2+C2+B1,2)</f>
         <v>1</v>
@@ -36155,7 +36152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <f>MOD(A3+B3+C3+B2,2)</f>
         <v>1</v>
@@ -36285,7 +36282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <f t="shared" ref="B5:B33" si="32">MOD(A4+B4+C4+B3,2)</f>
         <v>0</v>
@@ -36415,7 +36412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -36545,7 +36542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -36675,7 +36672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -36805,7 +36802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -36935,7 +36932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -37065,7 +37062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -37195,7 +37192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -37325,7 +37322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -37455,7 +37452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -37585,7 +37582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -37715,7 +37712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -37845,7 +37842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -37975,7 +37972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -38105,7 +38102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -38235,7 +38232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -38365,7 +38362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -38495,7 +38492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -38625,7 +38622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -38755,7 +38752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -38885,7 +38882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -39015,7 +39012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -39145,7 +39142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -39275,7 +39272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -39405,7 +39402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -39535,7 +39532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -39665,7 +39662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <f t="shared" si="32"/>
         <v>0</v>
@@ -39795,7 +39792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -39925,7 +39922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <f t="shared" si="32"/>
         <v>1</v>
@@ -40058,7 +40055,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40067,6 +40064,700 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C9F188-3168-4A98-822E-941659AFAAF0}">
+  <dimension ref="B3:U22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="2.5" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1</v>
+      </c>
+      <c r="N17" s="5">
+        <v>1</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0</v>
+      </c>
+      <c r="P17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <v>1</v>
+      </c>
+      <c r="O19" s="5">
+        <v>1</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>0</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
+        <v>1</v>
+      </c>
+      <c r="M20" s="5">
+        <v>1</v>
+      </c>
+      <c r="N20" s="5">
+        <v>1</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>0</v>
+      </c>
+      <c r="R20" s="5">
+        <v>1</v>
+      </c>
+      <c r="S20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>0</v>
+      </c>
+      <c r="R21" s="5">
+        <v>0</v>
+      </c>
+      <c r="S21" s="5">
+        <v>0</v>
+      </c>
+      <c r="T21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B22" s="5">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5">
+        <v>1</v>
+      </c>
+      <c r="M22" s="5">
+        <v>1</v>
+      </c>
+      <c r="N22" s="5">
+        <v>1</v>
+      </c>
+      <c r="O22" s="5">
+        <v>1</v>
+      </c>
+      <c r="P22" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0</v>
+      </c>
+      <c r="S22" s="5">
+        <v>1</v>
+      </c>
+      <c r="T22" s="5">
+        <v>0</v>
+      </c>
+      <c r="U22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:XFD1 A2:A22 V2:XFD22 B3:U22 A23:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6127F479-8B30-4AA5-B055-C31538DBA34E}">
   <dimension ref="B1:BL89"/>
   <sheetViews>
@@ -40074,9 +40765,9 @@
       <selection activeCell="AP3" sqref="AP3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -40096,7 +40787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>0</v>
       </c>
@@ -40280,7 +40971,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0</v>
       </c>
@@ -40464,7 +41155,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>0</v>
       </c>
@@ -40648,7 +41339,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1</v>
       </c>
@@ -40832,7 +41523,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -41016,7 +41707,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1</v>
       </c>
@@ -41200,7 +41891,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>0</v>
       </c>
@@ -41384,7 +42075,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>0</v>
       </c>
@@ -41568,7 +42259,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>0</v>
       </c>
@@ -41752,7 +42443,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1</v>
       </c>
@@ -41936,7 +42627,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>1</v>
       </c>
@@ -42120,7 +42811,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B15">
         <f>MOD(A3+B2+C3+B4,2)</f>
         <v>0</v>
@@ -42257,7 +42948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:64" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:64" x14ac:dyDescent="0.3">
       <c r="B16">
         <f t="shared" ref="B16:L16" si="12">MOD(A4+B3+C4+B5,2)</f>
         <v>0</v>
@@ -42394,7 +43085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B17">
         <f t="shared" ref="B17:L17" si="15">MOD(A5+B4+C5+B6,2)</f>
         <v>0</v>
@@ -42528,7 +43219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B18">
         <f t="shared" ref="B18:L18" si="18">MOD(A6+B5+C6+B7,2)</f>
         <v>0</v>
@@ -42662,7 +43353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B19">
         <f t="shared" ref="B19:L19" si="21">MOD(A7+B6+C7+B8,2)</f>
         <v>0</v>
@@ -42796,7 +43487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B20">
         <f t="shared" ref="B20:L20" si="24">MOD(A8+B7+C8+B9,2)</f>
         <v>0</v>
@@ -42930,7 +43621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B21">
         <f t="shared" ref="B21:L21" si="27">MOD(A9+B8+C9+B10,2)</f>
         <v>0</v>
@@ -43064,7 +43755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B22">
         <f t="shared" ref="B22:L22" si="30">MOD(A10+B9+C10+B11,2)</f>
         <v>0</v>
@@ -43198,7 +43889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B23">
         <f t="shared" ref="B23:L23" si="33">MOD(A11+B10+C11+B12,2)</f>
         <v>0</v>
@@ -43332,7 +44023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B24">
         <f t="shared" ref="B24:L24" si="36">MOD(A12+B11+C12+B13,2)</f>
         <v>0</v>
@@ -43466,7 +44157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B25">
         <f t="shared" ref="B25:L25" si="39">MOD(A13+B12+C13+B14,2)</f>
         <v>0</v>
@@ -43600,7 +44291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>0</v>
       </c>
@@ -43686,7 +44377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>0</v>
       </c>
@@ -43772,7 +44463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>1</v>
       </c>
@@ -43858,7 +44549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>0</v>
       </c>
@@ -43944,7 +44635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>1</v>
       </c>
@@ -44030,7 +44721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>0</v>
       </c>
@@ -44116,7 +44807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>1</v>
       </c>
@@ -44202,7 +44893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>0</v>
       </c>
@@ -44288,7 +44979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>1</v>
       </c>
@@ -44374,7 +45065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>0</v>
       </c>
@@ -44460,7 +45151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>1</v>
       </c>
@@ -44546,7 +45237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>0</v>
       </c>
@@ -44632,7 +45323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>0</v>
       </c>
@@ -44718,7 +45409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>0</v>
       </c>
@@ -44804,7 +45495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <f t="shared" ref="B42:O42" si="42">MOD(A27+B26+C27+B28,2)</f>
         <v>0</v>
@@ -44918,7 +45609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <f t="shared" ref="B43:O43" si="44">MOD(A28+B27+C28+B29,2)</f>
         <v>1</v>
@@ -45032,7 +45723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <f t="shared" ref="B44:O44" si="46">MOD(A29+B28+C29+B30,2)</f>
         <v>0</v>
@@ -45146,7 +45837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <f t="shared" ref="B45:O45" si="48">MOD(A30+B29+C30+B31,2)</f>
         <v>1</v>
@@ -45260,7 +45951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <f t="shared" ref="B46:O46" si="50">MOD(A31+B30+C31+B32,2)</f>
         <v>0</v>
@@ -45374,7 +46065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <f t="shared" ref="B47:O47" si="52">MOD(A32+B31+C32+B33,2)</f>
         <v>1</v>
@@ -45488,7 +46179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <f t="shared" ref="B48:O48" si="54">MOD(A33+B32+C33+B34,2)</f>
         <v>0</v>
@@ -45602,7 +46293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <f t="shared" ref="B49:O49" si="56">MOD(A34+B33+C34+B35,2)</f>
         <v>1</v>
@@ -45716,7 +46407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <f t="shared" ref="B50:O50" si="58">MOD(A35+B34+C35+B36,2)</f>
         <v>0</v>
@@ -45830,7 +46521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B51" s="2">
         <f t="shared" ref="B51:O51" si="60">MOD(A36+B35+C36+B37,2)</f>
         <v>1</v>
@@ -45944,7 +46635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B52">
         <f t="shared" ref="B52:O52" si="62">MOD(A37+B36+C37+B38,2)</f>
         <v>0</v>
@@ -46058,7 +46749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B53">
         <f t="shared" ref="B53:O53" si="64">MOD(A38+B37+C38+B39,2)</f>
         <v>0</v>
@@ -46172,7 +46863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B54">
         <f t="shared" ref="B54:O54" si="66">MOD(A39+B38+C39+B40,2)</f>
         <v>0</v>
@@ -46286,7 +46977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B55">
         <f t="shared" ref="B55:O55" si="68">MOD(A40+B39+C40+B41,2)</f>
         <v>0</v>
@@ -46400,7 +47091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>0</v>
       </c>
@@ -46498,7 +47189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>0</v>
       </c>
@@ -46596,7 +47287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>1</v>
       </c>
@@ -46694,7 +47385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>0</v>
       </c>
@@ -46792,7 +47483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>0</v>
       </c>
@@ -46890,7 +47581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>0</v>
       </c>
@@ -46988,7 +47679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>0</v>
       </c>
@@ -47086,7 +47777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>0</v>
       </c>
@@ -47184,7 +47875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>1</v>
       </c>
@@ -47282,7 +47973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>0</v>
       </c>
@@ -47380,7 +48071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>0</v>
       </c>
@@ -47478,7 +48169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>0</v>
       </c>
@@ -47576,7 +48267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>1</v>
       </c>
@@ -47674,7 +48365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>0</v>
       </c>
@@ -47772,7 +48463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>1</v>
       </c>
@@ -47870,7 +48561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>0</v>
       </c>
@@ -47968,7 +48659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B74" s="2">
         <f t="shared" ref="B74:Q75" si="70">MOD(A57+B56+C57+B58,2)</f>
         <v>0</v>
@@ -48098,7 +48789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B75" s="2">
         <f t="shared" si="70"/>
         <v>1</v>
@@ -48228,7 +48919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B76" s="2">
         <f t="shared" ref="B76:P89" si="73">MOD(A59+B58+C59+B60,2)</f>
         <v>0</v>
@@ -48358,7 +49049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B77" s="2">
         <f t="shared" si="73"/>
         <v>1</v>
@@ -48488,7 +49179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B78" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -48618,7 +49309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B79" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -48748,7 +49439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B80" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -48878,7 +49569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B81" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -49008,7 +49699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B82">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -49138,7 +49829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B83">
         <f t="shared" si="73"/>
         <v>1</v>
@@ -49268,7 +49959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B84">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -49398,7 +50089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B85">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -49528,7 +50219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B86">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -49658,7 +50349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B87">
         <f t="shared" si="73"/>
         <v>1</v>
@@ -49788,7 +50479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B88">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -49918,7 +50609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B89">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -50063,18 +50754,18 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.5" style="5" hidden="1" customWidth="1"/>
     <col min="2" max="16384" width="2.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:77" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:77" x14ac:dyDescent="0.3">
       <c r="C3" s="5">
         <v>1</v>
       </c>
@@ -50214,7 +50905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:77" x14ac:dyDescent="0.3">
       <c r="C4" s="8">
         <f>MOD(A3+B3+C3+A2+'Y(递推)'!A3+'Y(递推)'!B3+'Y(递推)'!C3+'Y(递推)'!A2+'Y(递推)'!B2+1,2)</f>
         <v>1</v>
@@ -50404,7 +51095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:77" x14ac:dyDescent="0.3">
       <c r="C5" s="8">
         <f>MOD(A4+B4+C4+A3+'Y(递推)'!A4+'Y(递推)'!B4+'Y(递推)'!C4+'Y(递推)'!A3+'Y(递推)'!B3+1,2)</f>
         <v>1</v>
@@ -50594,7 +51285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:77" x14ac:dyDescent="0.3">
       <c r="C6" s="8">
         <f>MOD(A5+B5+C5+A4+'Y(递推)'!A5+'Y(递推)'!B5+'Y(递推)'!C5+'Y(递推)'!A4+'Y(递推)'!B4+1,2)</f>
         <v>0</v>
@@ -50780,7 +51471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:77" x14ac:dyDescent="0.3">
       <c r="C7" s="4">
         <f>MOD(A6+B6+C6+A5+'Y(递推)'!A6+'Y(递推)'!B6+'Y(递推)'!C6+'Y(递推)'!A5+'Y(递推)'!B5+1,2)</f>
         <v>1</v>
@@ -50958,7 +51649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:77" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
       <c r="C8" s="8">
         <f>MOD(A7+B7+C7+A6+'Y(递推)'!A7+'Y(递推)'!B7+'Y(递推)'!C7+'Y(递推)'!A6+'Y(递推)'!B6+1,2)</f>
@@ -51127,7 +51818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:77" x14ac:dyDescent="0.3">
       <c r="C9" s="8">
         <f>MOD(A8+B8+C8+A7+'Y(递推)'!A8+'Y(递推)'!B8+'Y(递推)'!C8+'Y(递推)'!A7+'Y(递推)'!B7+1,2)</f>
         <v>0</v>
@@ -51277,7 +51968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:77" x14ac:dyDescent="0.3">
       <c r="C10" s="8">
         <f>MOD(A9+B9+C9+A8+'Y(递推)'!A9+'Y(递推)'!B9+'Y(递推)'!C9+'Y(递推)'!A8+'Y(递推)'!B8+1,2)</f>
         <v>0</v>
@@ -51407,7 +52098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:77" x14ac:dyDescent="0.3">
       <c r="C11" s="8">
         <f>MOD(A10+B10+C10+A9+'Y(递推)'!A10+'Y(递推)'!B10+'Y(递推)'!C10+'Y(递推)'!A9+'Y(递推)'!B9+1,2)</f>
         <v>0</v>
@@ -51513,7 +52204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:77" x14ac:dyDescent="0.3">
       <c r="C12" s="8">
         <f>MOD(A11+B11+C11+A10+'Y(递推)'!A11+'Y(递推)'!B11+'Y(递推)'!C11+'Y(递推)'!A10+'Y(递推)'!B10+1,2)</f>
         <v>0</v>
@@ -51591,7 +52282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:77" x14ac:dyDescent="0.3">
       <c r="C13" s="8">
         <f>MOD(A12+B12+C12+A11+'Y(递推)'!A12+'Y(递推)'!B12+'Y(递推)'!C12+'Y(递推)'!A11+'Y(递推)'!B11+1,2)</f>
         <v>1</v>
@@ -51638,7 +52329,7 @@
       </c>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:77" x14ac:dyDescent="0.3">
       <c r="C14" s="8">
         <f>MOD(A13+B13+C13+A12+'Y(递推)'!A13+'Y(递推)'!B13+'Y(递推)'!C13+'Y(递推)'!A12+'Y(递推)'!B12+1,2)</f>
         <v>1</v>
@@ -51712,7 +52403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:77" x14ac:dyDescent="0.3">
       <c r="C15" s="8">
         <f>MOD(A14+B14+C14+A13+'Y(递推)'!A14+'Y(递推)'!B14+'Y(递推)'!C14+'Y(递推)'!A13+'Y(递推)'!B13+1,2)</f>
         <v>0</v>
@@ -51790,7 +52481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:77" x14ac:dyDescent="0.3">
       <c r="C16" s="8">
         <f>MOD(A15+B15+C15+A14+'Y(递推)'!A15+'Y(递推)'!B15+'Y(递推)'!C15+'Y(递推)'!A14+'Y(递推)'!B14+1,2)</f>
         <v>0</v>
@@ -51872,7 +52563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C17" s="8">
         <f>MOD(A16+B16+C16+A15+'Y(递推)'!A16+'Y(递推)'!B16+'Y(递推)'!C16+'Y(递推)'!A15+'Y(递推)'!B15+1,2)</f>
         <v>0</v>
@@ -51958,7 +52649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C18" s="8">
         <f>MOD(A17+B17+C17+A16+'Y(递推)'!A17+'Y(递推)'!B17+'Y(递推)'!C17+'Y(递推)'!A16+'Y(递推)'!B16+1,2)</f>
         <v>1</v>
@@ -52048,7 +52739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C19" s="8">
         <f>MOD(A18+B18+C18+A17+'Y(递推)'!A18+'Y(递推)'!B18+'Y(递推)'!C18+'Y(递推)'!A17+'Y(递推)'!B17+1,2)</f>
         <v>0</v>
@@ -52142,7 +52833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C20" s="8">
         <f>MOD(A19+B19+C19+A18+'Y(递推)'!A19+'Y(递推)'!B19+'Y(递推)'!C19+'Y(递推)'!A18+'Y(递推)'!B18+1,2)</f>
         <v>0</v>
@@ -52216,7 +52907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C21" s="8">
         <f>MOD(A20+B20+C20+A19+'Y(递推)'!A20+'Y(递推)'!B20+'Y(递推)'!C20+'Y(递推)'!A19+'Y(递推)'!B19+1,2)</f>
         <v>1</v>
@@ -52294,7 +52985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:50" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:50" x14ac:dyDescent="0.3">
       <c r="C22" s="8">
         <f>MOD(A21+B21+C21+A20+'Y(递推)'!A21+'Y(递推)'!B21+'Y(递推)'!C21+'Y(递推)'!A20+'Y(递推)'!B20+1,2)</f>
         <v>0</v>
@@ -52379,32 +53070,32 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD2 X3:XFD3 W3:W8 B3:B22 X4:AY8 AS4:AX9 AZ4:BG10 BH4:BP11 BQ4:XFD12 W9:AY9 AR10:AY10 W10:AL13 AR11:BG11 BG12:BP12 BG13:XFD13 BP14:XFD15 W14:Z16 BG14:BG19 AY15:BF15 AM15:AX19 AA16:AG16 AH16:AL18 AY16:AY19 AZ16:BF21 BP16:BP22 BQ16:XFD24 W17:AG18 W19:AL19 B23:BP24 A25:XFD1048576">
-    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:R18 T18:V19 C19:S19 C20:BG22">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:V17">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA14:AL15">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM14:BF14">
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH14:BO22">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52416,21 +53107,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47807461-EB3F-467D-B2B6-EB586CA833C3}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="2.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <f>'Y(灯)'!C3</f>
         <v>1</v>
@@ -52512,7 +53203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <f>'Y(灯)'!C4</f>
         <v>1</v>
@@ -52594,7 +53285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <f>'Y(灯)'!C5</f>
         <v>1</v>
@@ -52676,7 +53367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <f>'Y(灯)'!C6</f>
         <v>0</v>
@@ -52758,7 +53449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <f>'Y(灯)'!C7</f>
         <v>1</v>
@@ -52840,7 +53531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <f>'Y(灯)'!C8</f>
         <v>1</v>
@@ -52922,7 +53613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <f>'Y(灯)'!C9</f>
         <v>0</v>
@@ -53004,7 +53695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <f>'Y(灯)'!C10</f>
         <v>0</v>
@@ -53086,7 +53777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <f>'Y(灯)'!C11</f>
         <v>0</v>
@@ -53168,7 +53859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <f>'Y(灯)'!C12</f>
         <v>0</v>
@@ -53250,7 +53941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <f>'Y(灯)'!C13</f>
         <v>1</v>
@@ -53332,7 +54023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <f>'Y(灯)'!C14</f>
         <v>1</v>
@@ -53414,7 +54105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <f>'Y(灯)'!C15</f>
         <v>0</v>
@@ -53496,7 +54187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <f>'Y(灯)'!C16</f>
         <v>0</v>
@@ -53578,7 +54269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <f>'Y(灯)'!C17</f>
         <v>0</v>
@@ -53660,7 +54351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <f>'Y(灯)'!C18</f>
         <v>1</v>
@@ -53742,7 +54433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <f>'Y(灯)'!C19</f>
         <v>0</v>
@@ -53824,7 +54515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <f>'Y(灯)'!C20</f>
         <v>0</v>
@@ -53906,7 +54597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <f>'Y(灯)'!C21</f>
         <v>1</v>
@@ -53988,7 +54679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <f>'Y(灯)'!C22</f>
         <v>0</v>
@@ -54073,17 +54764,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z14:AA14">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BN14">
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -54099,17 +54790,17 @@
       <selection activeCell="B3" sqref="B3:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="2.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <f>MOD('Y(灯)'!B2+'Y(递推)'!B2,2)</f>
         <v>0</v>
@@ -54191,7 +54882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <f>MOD('Y(灯)'!B3+'Y(递推)'!B3,2)</f>
         <v>1</v>
@@ -54273,7 +54964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <f>MOD('Y(灯)'!B4+'Y(递推)'!B4,2)</f>
         <v>1</v>
@@ -54355,7 +55046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <f>MOD('Y(灯)'!B5+'Y(递推)'!B5,2)</f>
         <v>1</v>
@@ -54437,7 +55128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <f>MOD('Y(灯)'!B6+'Y(递推)'!B6,2)</f>
         <v>0</v>
@@ -54519,7 +55210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <f>MOD('Y(灯)'!B7+'Y(递推)'!B7,2)</f>
         <v>1</v>
@@ -54601,7 +55292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <f>MOD('Y(灯)'!B8+'Y(递推)'!B8,2)</f>
         <v>1</v>
@@ -54683,7 +55374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <f>MOD('Y(灯)'!B9+'Y(递推)'!B9,2)</f>
         <v>0</v>
@@ -54765,7 +55456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <f>MOD('Y(灯)'!B10+'Y(递推)'!B10,2)</f>
         <v>0</v>
@@ -54847,7 +55538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <f>MOD('Y(灯)'!B11+'Y(递推)'!B11,2)</f>
         <v>0</v>
@@ -54929,7 +55620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <f>MOD('Y(灯)'!B12+'Y(递推)'!B12,2)</f>
         <v>0</v>
@@ -55011,7 +55702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <f>MOD('Y(灯)'!B13+'Y(递推)'!B13,2)</f>
         <v>1</v>
@@ -55093,7 +55784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <f>MOD('Y(灯)'!B14+'Y(递推)'!B14,2)</f>
         <v>1</v>
@@ -55175,7 +55866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <f>MOD('Y(灯)'!B15+'Y(递推)'!B15,2)</f>
         <v>0</v>
@@ -55257,7 +55948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <f>MOD('Y(灯)'!B16+'Y(递推)'!B16,2)</f>
         <v>0</v>
@@ -55339,7 +56030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <f>MOD('Y(灯)'!B17+'Y(递推)'!B17,2)</f>
         <v>0</v>
@@ -55421,7 +56112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <f>MOD('Y(灯)'!B18+'Y(递推)'!B18,2)</f>
         <v>1</v>
@@ -55503,7 +56194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <f>MOD('Y(灯)'!B19+'Y(递推)'!B19,2)</f>
         <v>0</v>
@@ -55585,7 +56276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <f>MOD('Y(灯)'!B20+'Y(递推)'!B20,2)</f>
         <v>0</v>
@@ -55667,7 +56358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <f>MOD('Y(灯)'!B21+'Y(递推)'!B21,2)</f>
         <v>1</v>
@@ -55752,17 +56443,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1 A2:A23 V2:XFD23 B3:U23 A24:XFD1048576">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z14:AA14">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BN14">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55778,17 +56469,17 @@
       <selection activeCell="B3" sqref="B3:U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="2.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <f>MOD('Y1'!A2+'Y(递推)'!B1,2)</f>
         <v>0</v>
@@ -55870,7 +56561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <f>MOD('Y1'!A3+'Y(递推)'!B2,2)</f>
         <v>0</v>
@@ -55952,7 +56643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <f>MOD('Y1'!A4+'Y(递推)'!B3,2)</f>
         <v>1</v>
@@ -56034,7 +56725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <f>MOD('Y1'!A5+'Y(递推)'!B4,2)</f>
         <v>1</v>
@@ -56116,7 +56807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <f>MOD('Y1'!A6+'Y(递推)'!B5,2)</f>
         <v>1</v>
@@ -56198,7 +56889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <f>MOD('Y1'!A7+'Y(递推)'!B6,2)</f>
         <v>0</v>
@@ -56280,7 +56971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <f>MOD('Y1'!A8+'Y(递推)'!B7,2)</f>
         <v>1</v>
@@ -56362,7 +57053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <f>MOD('Y1'!A9+'Y(递推)'!B8,2)</f>
         <v>1</v>
@@ -56444,7 +57135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <f>MOD('Y1'!A10+'Y(递推)'!B9,2)</f>
         <v>0</v>
@@ -56526,7 +57217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <f>MOD('Y1'!A11+'Y(递推)'!B10,2)</f>
         <v>0</v>
@@ -56608,7 +57299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <f>MOD('Y1'!A12+'Y(递推)'!B11,2)</f>
         <v>0</v>
@@ -56690,7 +57381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <f>MOD('Y1'!A13+'Y(递推)'!B12,2)</f>
         <v>0</v>
@@ -56772,7 +57463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <f>MOD('Y1'!A14+'Y(递推)'!B13,2)</f>
         <v>1</v>
@@ -56854,7 +57545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <f>MOD('Y1'!A15+'Y(递推)'!B14,2)</f>
         <v>1</v>
@@ -56936,7 +57627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <f>MOD('Y1'!A16+'Y(递推)'!B15,2)</f>
         <v>0</v>
@@ -57018,7 +57709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <f>MOD('Y1'!A17+'Y(递推)'!B16,2)</f>
         <v>0</v>
@@ -57100,7 +57791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <f>MOD('Y1'!A18+'Y(递推)'!B17,2)</f>
         <v>0</v>
@@ -57182,7 +57873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <f>MOD('Y1'!A19+'Y(递推)'!B18,2)</f>
         <v>1</v>
@@ -57264,7 +57955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <f>MOD('Y1'!A20+'Y(递推)'!B19,2)</f>
         <v>0</v>
@@ -57346,7 +58037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <f>MOD('Y1'!A21+'Y(递推)'!B20,2)</f>
         <v>0</v>
@@ -57431,17 +58122,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1 A2:A23 V2:XFD23 B3:U23 A24:XFD1048576">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z14:AA14">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG14:BN14">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57458,9 +58149,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -57589,7 +58280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <v>0</v>
       </c>
@@ -57718,7 +58409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>0</v>
       </c>
@@ -57847,7 +58538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>0</v>
       </c>
@@ -57976,7 +58667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>0</v>
       </c>
@@ -58105,7 +58796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>0</v>
       </c>
@@ -58234,7 +58925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>0</v>
       </c>
@@ -58363,7 +59054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>0</v>
       </c>
@@ -58492,7 +59183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>0</v>
       </c>
@@ -58621,7 +59312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>0</v>
       </c>
@@ -58750,7 +59441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>0</v>
       </c>
@@ -58879,7 +59570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>0</v>
       </c>
@@ -59008,7 +59699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>0</v>
       </c>
@@ -59137,7 +59828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>0</v>
       </c>
@@ -59266,7 +59957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>0</v>
       </c>
@@ -59395,7 +60086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>0</v>
       </c>
@@ -59524,7 +60215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>0</v>
       </c>
@@ -59653,7 +60344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>0</v>
       </c>
@@ -59782,7 +60473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>0</v>
       </c>
@@ -59911,7 +60602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>0</v>
       </c>
@@ -60040,7 +60731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>0</v>
       </c>
@@ -60169,7 +60860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>0</v>
       </c>
@@ -60298,7 +60989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>0</v>
       </c>
@@ -60427,7 +61118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>0</v>
       </c>
@@ -60556,7 +61247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>0</v>
       </c>
@@ -60685,7 +61376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>0</v>
       </c>
@@ -60814,7 +61505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>0</v>
       </c>
@@ -60943,7 +61634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>0</v>
       </c>
@@ -61072,7 +61763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <v>0</v>
       </c>
@@ -61201,7 +61892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <v>0</v>
       </c>
@@ -61330,7 +62021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
         <v>0</v>
       </c>
@@ -61459,7 +62150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <v>0</v>
       </c>
@@ -61591,7 +62282,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:AG33">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -61607,12 +62298,12 @@
       <selection activeCell="AJ21" sqref="AI1:AJ21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="2.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -61741,7 +62432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <v>0</v>
       </c>
@@ -61870,7 +62561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>0</v>
       </c>
@@ -61999,7 +62690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>0</v>
       </c>
@@ -62128,7 +62819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>0</v>
       </c>
@@ -62257,7 +62948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>0</v>
       </c>
@@ -62386,7 +63077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>0</v>
       </c>
@@ -62515,7 +63206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B9" s="5">
         <v>0</v>
       </c>
@@ -62644,7 +63335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B10" s="5">
         <v>0</v>
       </c>
@@ -62773,7 +63464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B11" s="5">
         <v>0</v>
       </c>
@@ -62902,7 +63593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B12" s="5">
         <v>0</v>
       </c>
@@ -63031,7 +63722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B13" s="5">
         <v>0</v>
       </c>
@@ -63160,7 +63851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B14" s="5">
         <v>0</v>
       </c>
@@ -63289,7 +63980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B15" s="5">
         <v>0</v>
       </c>
@@ -63418,7 +64109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>0</v>
       </c>
@@ -63547,7 +64238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B17" s="5">
         <v>0</v>
       </c>
@@ -63676,7 +64367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B18" s="5">
         <v>0</v>
       </c>
@@ -63805,7 +64496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
         <v>0</v>
       </c>
@@ -63934,7 +64625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
         <v>0</v>
       </c>
@@ -64063,7 +64754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>0</v>
       </c>
@@ -64192,7 +64883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
         <v>0</v>
       </c>
@@ -64321,7 +65012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
         <v>0</v>
       </c>
@@ -64450,7 +65141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B24" s="5">
         <v>0</v>
       </c>
@@ -64579,7 +65270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B25" s="5">
         <v>0</v>
       </c>
@@ -64708,7 +65399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B26" s="5">
         <v>0</v>
       </c>
@@ -64837,7 +65528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>0</v>
       </c>
@@ -64966,7 +65657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B28" s="5">
         <v>0</v>
       </c>
@@ -65095,7 +65786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B29" s="5">
         <v>0</v>
       </c>
@@ -65224,7 +65915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B30" s="5">
         <v>0</v>
       </c>
@@ -65353,7 +66044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <v>0</v>
       </c>
@@ -65482,7 +66173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B32" s="5">
         <v>0</v>
       </c>
@@ -65611,7 +66302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B33" s="5">
         <v>0</v>
       </c>
@@ -65743,12 +66434,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:AH1 A34:XFD1048576">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1:XFD14 AH2:AH21 A2:AG33 AK15:AO15 AQ15:XFD15 AK16:XFD21 AH22:XFD33">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -65764,12 +66455,12 @@
       <selection activeCell="B2" sqref="B2:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="43" max="60" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -65867,7 +66558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B3">
         <f>MOD(A2+C2,2)</f>
         <v>0</v>
@@ -65997,7 +66688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B4">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -66127,7 +66818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -66257,7 +66948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -66387,7 +67078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -66517,7 +67208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -66647,7 +67338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -66777,7 +67468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -66907,7 +67598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -67037,7 +67728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -67167,7 +67858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <f t="shared" ref="B13:K22" si="3">MOD(A12+C12,2)</f>
         <v>0</v>
@@ -67297,7 +67988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B14">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -67427,7 +68118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B15">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -67557,7 +68248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B16">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -67687,7 +68378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B17">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -67817,7 +68508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B18">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -67947,7 +68638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B19">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -68077,7 +68768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B20">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -68207,7 +68898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B21">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -68337,7 +69028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B22">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -68467,7 +69158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B23">
         <f t="shared" ref="B23:K33" si="6">MOD(A22+C22,2)</f>
         <v>0</v>
@@ -68597,7 +69288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B24">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -68727,7 +69418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B25">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -68857,7 +69548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B26">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -68987,7 +69678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B27">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -69117,7 +69808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B28">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -69247,7 +69938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B29">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -69377,7 +70068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B30">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -69507,7 +70198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B31">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -69637,7 +70328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B32">
         <f t="shared" si="6"/>
         <v>1</v>
@@ -69767,7 +70458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B33">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -69900,7 +70591,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:BH33">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
